--- a/data/validation_cohort_full.xlsx
+++ b/data/validation_cohort_full.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolfgang.kelsch\Documents\GitHub\RichClubs\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
   <si>
     <t>Mouse_RFID</t>
   </si>
@@ -344,26 +350,82 @@
   <si>
     <t>chasing_pc2_new</t>
   </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>histology</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -371,330 +433,591 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ110"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BS110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:XFD110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="true"/>
-    <col min="2" max="2" width="16.85546875" customWidth="true"/>
-    <col min="3" max="3" width="6.28515625" customWidth="true"/>
-    <col min="4" max="4" width="10.140625" customWidth="true"/>
-    <col min="5" max="5" width="11.28515625" customWidth="true"/>
-    <col min="6" max="6" width="4.28515625" customWidth="true"/>
-    <col min="7" max="7" width="7.5703125" customWidth="true"/>
-    <col min="8" max="8" width="11.28515625" customWidth="true"/>
-    <col min="9" max="9" width="12.140625" customWidth="true"/>
-    <col min="10" max="10" width="11.42578125" customWidth="true"/>
-    <col min="11" max="11" width="13.28515625" customWidth="true"/>
-    <col min="12" max="12" width="13.42578125" customWidth="true"/>
-    <col min="13" max="13" width="15.7109375" customWidth="true"/>
-    <col min="14" max="14" width="14.42578125" customWidth="true"/>
-    <col min="15" max="15" width="14.42578125" customWidth="true"/>
-    <col min="16" max="16" width="14.42578125" customWidth="true"/>
-    <col min="17" max="17" width="25.42578125" customWidth="true"/>
-    <col min="18" max="18" width="23.5703125" customWidth="true"/>
-    <col min="19" max="19" width="41.85546875" customWidth="true"/>
-    <col min="20" max="20" width="44" customWidth="true"/>
-    <col min="21" max="21" width="14.42578125" customWidth="true"/>
-    <col min="22" max="22" width="15.42578125" customWidth="true"/>
-    <col min="23" max="23" width="14.42578125" customWidth="true"/>
-    <col min="24" max="24" width="14.42578125" customWidth="true"/>
-    <col min="25" max="25" width="13.5703125" customWidth="true"/>
-    <col min="26" max="26" width="14.42578125" customWidth="true"/>
-    <col min="27" max="27" width="14.42578125" customWidth="true"/>
-    <col min="28" max="28" width="14.42578125" customWidth="true"/>
-    <col min="29" max="29" width="13.7109375" customWidth="true"/>
-    <col min="30" max="30" width="14.42578125" customWidth="true"/>
-    <col min="31" max="31" width="14.42578125" customWidth="true"/>
-    <col min="32" max="32" width="14.42578125" customWidth="true"/>
-    <col min="33" max="33" width="14.42578125" customWidth="true"/>
-    <col min="34" max="34" width="22" customWidth="true"/>
-    <col min="35" max="35" width="36.28515625" customWidth="true"/>
-    <col min="36" max="36" width="32.42578125" customWidth="true"/>
-    <col min="37" max="37" width="20.85546875" customWidth="true"/>
-    <col min="38" max="38" width="20.85546875" customWidth="true"/>
-    <col min="39" max="39" width="20.85546875" customWidth="true"/>
-    <col min="40" max="40" width="20.85546875" customWidth="true"/>
-    <col min="41" max="41" width="20.85546875" customWidth="true"/>
-    <col min="42" max="42" width="20.85546875" customWidth="true"/>
-    <col min="43" max="43" width="20.85546875" customWidth="true"/>
-    <col min="44" max="44" width="20.85546875" customWidth="true"/>
-    <col min="45" max="45" width="20.85546875" customWidth="true"/>
-    <col min="46" max="46" width="16.5703125" customWidth="true"/>
-    <col min="47" max="47" width="16.5703125" customWidth="true"/>
-    <col min="48" max="48" width="16.42578125" customWidth="true"/>
-    <col min="49" max="49" width="16.42578125" customWidth="true"/>
-    <col min="50" max="50" width="18.140625" customWidth="true"/>
-    <col min="51" max="51" width="18.140625" customWidth="true"/>
-    <col min="52" max="52" width="18.42578125" customWidth="true"/>
-    <col min="53" max="53" width="18.42578125" customWidth="true"/>
-    <col min="54" max="54" width="18.42578125" customWidth="true"/>
-    <col min="55" max="55" width="18.42578125" customWidth="true"/>
-    <col min="56" max="56" width="18.42578125" customWidth="true"/>
-    <col min="57" max="57" width="18.42578125" customWidth="true"/>
-    <col min="58" max="58" width="16.85546875" customWidth="true"/>
-    <col min="59" max="59" width="16.85546875" customWidth="true"/>
-    <col min="60" max="60" width="16.85546875" customWidth="true"/>
-    <col min="61" max="61" width="25.7109375" customWidth="true"/>
-    <col min="62" max="62" width="25.7109375" customWidth="true"/>
-    <col min="63" max="63" width="25.7109375" customWidth="true"/>
-    <col min="64" max="64" width="25.7109375" customWidth="true"/>
-    <col min="65" max="65" width="25.7109375" customWidth="true"/>
-    <col min="66" max="66" width="25.7109375" customWidth="true"/>
-    <col min="67" max="67" width="25.7109375" customWidth="true"/>
-    <col min="68" max="68" width="25.7109375" customWidth="true"/>
-    <col min="69" max="69" width="25.7109375" customWidth="true"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="16" width="14.44140625" customWidth="1"/>
+    <col min="17" max="17" width="25.44140625" customWidth="1"/>
+    <col min="18" max="18" width="23.5546875" customWidth="1"/>
+    <col min="19" max="19" width="41.88671875" customWidth="1"/>
+    <col min="20" max="20" width="44" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" customWidth="1"/>
+    <col min="22" max="22" width="15.44140625" customWidth="1"/>
+    <col min="23" max="24" width="14.44140625" customWidth="1"/>
+    <col min="25" max="25" width="13.5546875" customWidth="1"/>
+    <col min="26" max="28" width="14.44140625" customWidth="1"/>
+    <col min="29" max="29" width="13.6640625" customWidth="1"/>
+    <col min="30" max="33" width="14.44140625" customWidth="1"/>
+    <col min="34" max="34" width="22" customWidth="1"/>
+    <col min="35" max="35" width="36.33203125" customWidth="1"/>
+    <col min="36" max="36" width="32.44140625" customWidth="1"/>
+    <col min="37" max="45" width="20.88671875" customWidth="1"/>
+    <col min="46" max="47" width="16.5546875" customWidth="1"/>
+    <col min="48" max="49" width="16.44140625" customWidth="1"/>
+    <col min="50" max="51" width="18.109375" customWidth="1"/>
+    <col min="52" max="57" width="18.44140625" customWidth="1"/>
+    <col min="58" max="60" width="16.88671875" customWidth="1"/>
+    <col min="61" max="69" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:71">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AN1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AO1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AR1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AS1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AT1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AU1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AV1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AW1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AX1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AY1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BA1" s="11" t="s">
+      <c r="BA1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BB1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BC1" s="11" t="s">
+      <c r="BC1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BD1" s="11" t="s">
+      <c r="BD1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BE1" s="11" t="s">
+      <c r="BE1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BF1" s="11" t="s">
+      <c r="BF1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BG1" s="11" t="s">
+      <c r="BG1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BH1" s="11" t="s">
+      <c r="BH1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BI1" s="11" t="s">
+      <c r="BI1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BJ1" s="11" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BK1" s="11" t="s">
+      <c r="BK1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BL1" s="11" t="s">
+      <c r="BL1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BM1" s="11" t="s">
+      <c r="BM1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BN1" s="11" t="s">
+      <c r="BN1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BO1" s="11" t="s">
+      <c r="BO1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BP1" s="11" t="s">
+      <c r="BP1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BQ1" s="11" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="BR1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:71">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -716,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>25.379999999999999</v>
+        <v>25.38</v>
       </c>
       <c r="I2">
-        <v>24.510000000000002</v>
+        <v>24.51</v>
       </c>
       <c r="J2">
         <v>-0.86999999999999744</v>
@@ -803,7 +1126,7 @@
         <v>-0.83644619389419506</v>
       </c>
       <c r="BO2">
-        <v>0.026083159586300579</v>
+        <v>2.6083159586300579E-2</v>
       </c>
       <c r="BP2">
         <v>-0.84521230879251241</v>
@@ -811,9 +1134,13 @@
       <c r="BQ2">
         <v>0.27190132363838559</v>
       </c>
+      <c r="BR2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="3"/>
     </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:71">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -838,7 +1165,7 @@
         <v>26.68</v>
       </c>
       <c r="I3">
-        <v>27.120000000000001</v>
+        <v>27.12</v>
       </c>
       <c r="J3">
         <v>0.44000000000000128</v>
@@ -930,9 +1257,15 @@
       <c r="BQ3">
         <v>0.91247769876033169</v>
       </c>
+      <c r="BR3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:71">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -954,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>27.920000000000002</v>
+        <v>27.92</v>
       </c>
       <c r="I4">
-        <v>27.809999999999999</v>
+        <v>27.81</v>
       </c>
       <c r="J4">
         <v>-0.11000000000000298</v>
@@ -987,13 +1320,13 @@
         <v>1.6234600932292294</v>
       </c>
       <c r="AJ4">
-        <v>0.087165555443352138</v>
+        <v>8.7165555443352138E-2</v>
       </c>
       <c r="AK4">
         <v>-3.6050826677551209</v>
       </c>
       <c r="AL4">
-        <v>0.099910723983259397</v>
+        <v>9.9910723983259397E-2</v>
       </c>
       <c r="AM4">
         <v>1.616276109420361</v>
@@ -1011,7 +1344,7 @@
         <v>-1.9427274381257835</v>
       </c>
       <c r="AR4">
-        <v>-0.071521272139073735</v>
+        <v>-7.1521272139073735E-2</v>
       </c>
       <c r="AS4">
         <v>-0.54015609870934689</v>
@@ -1049,9 +1382,12 @@
       <c r="BQ4">
         <v>1.955460806514332</v>
       </c>
+      <c r="BR4" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:71">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1076,7 +1412,7 @@
         <v>28.07</v>
       </c>
       <c r="I5">
-        <v>28.309999999999999</v>
+        <v>28.31</v>
       </c>
       <c r="J5">
         <v>0.23999999999999844</v>
@@ -1100,7 +1436,7 @@
         <v>-1.4710877664783115</v>
       </c>
       <c r="AH5">
-        <v>4073.7199999999998</v>
+        <v>4073.72</v>
       </c>
       <c r="AI5">
         <v>1.4257610110875598</v>
@@ -1168,9 +1504,15 @@
       <c r="BQ5">
         <v>0.73352052286863745</v>
       </c>
+      <c r="BR5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:71">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1192,10 +1534,10 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>24.120000000000001</v>
+        <v>24.12</v>
       </c>
       <c r="I6">
-        <v>23.920000000000002</v>
+        <v>23.92</v>
       </c>
       <c r="J6">
         <v>-0.19999999999999929</v>
@@ -1225,7 +1567,7 @@
         <v>1.1831584352196314</v>
       </c>
       <c r="AJ6">
-        <v>0.085327204996571343</v>
+        <v>8.5327204996571343E-2</v>
       </c>
       <c r="AK6">
         <v>-4.400422791504786</v>
@@ -1287,9 +1629,15 @@
       <c r="BQ6">
         <v>0.82921937644546118</v>
       </c>
+      <c r="BR6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="7" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:71">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1311,10 +1659,10 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>25.690000000000001</v>
+        <v>25.69</v>
       </c>
       <c r="I7">
-        <v>26.710000000000001</v>
+        <v>26.71</v>
       </c>
       <c r="J7">
         <v>1.0199999999999996</v>
@@ -1329,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="N7">
-        <v>-0.064268663063845821</v>
+        <v>-6.4268663063845821E-2</v>
       </c>
       <c r="O7">
         <v>1.06891605971006</v>
@@ -1368,7 +1716,7 @@
         <v>-2.1161038425155887</v>
       </c>
       <c r="AR7">
-        <v>0.0021861509577370784</v>
+        <v>2.1861509577370784E-3</v>
       </c>
       <c r="AS7">
         <v>-0.66335183555342259</v>
@@ -1406,9 +1754,15 @@
       <c r="BQ7">
         <v>1.1315575705916923</v>
       </c>
+      <c r="BR7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:71">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1430,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25.710000000000001</v>
+        <v>25.71</v>
       </c>
       <c r="I8">
-        <v>26.390000000000001</v>
+        <v>26.39</v>
       </c>
       <c r="J8">
         <v>0.67999999999999972</v>
@@ -1463,7 +1817,7 @@
         <v>1.6243275428333888</v>
       </c>
       <c r="AJ8">
-        <v>0.092586713858272829</v>
+        <v>9.2586713858272829E-2</v>
       </c>
       <c r="AK8">
         <v>-2.2841569581157057</v>
@@ -1472,7 +1826,7 @@
         <v>-0.88659036413772796</v>
       </c>
       <c r="AM8">
-        <v>0.051416716616244994</v>
+        <v>5.1416716616244994E-2</v>
       </c>
       <c r="AN8">
         <v>-0.19983044792284213</v>
@@ -1490,7 +1844,7 @@
         <v>1.2800794917522922</v>
       </c>
       <c r="AS8">
-        <v>0.062010084018997096</v>
+        <v>6.2010084018997096E-2</v>
       </c>
       <c r="AT8">
         <v>-0.61050225422993998</v>
@@ -1525,9 +1879,12 @@
       <c r="BQ8">
         <v>2.2140756883536974</v>
       </c>
+      <c r="BR8" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:71">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1552,7 +1909,7 @@
         <v>28.07</v>
       </c>
       <c r="I9">
-        <v>28.210000000000001</v>
+        <v>28.21</v>
       </c>
       <c r="J9">
         <v>0.14000000000000057</v>
@@ -1615,7 +1972,7 @@
         <v>2.5758037172339514</v>
       </c>
       <c r="AU9">
-        <v>0.045778659495489996</v>
+        <v>4.5778659495489996E-2</v>
       </c>
       <c r="BI9">
         <v>-7.4326706336406989</v>
@@ -1644,9 +2001,13 @@
       <c r="BQ9">
         <v>1.1637407863450477</v>
       </c>
+      <c r="BR9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS9" s="8"/>
     </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:71">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1763,9 +2124,12 @@
       <c r="BQ10">
         <v>0.56388806689853754</v>
       </c>
+      <c r="BR10" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:71">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1787,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>26.100000000000001</v>
+        <v>26.1</v>
       </c>
       <c r="I11">
         <v>27.34</v>
@@ -1820,7 +2184,7 @@
         <v>1.4539044085696122</v>
       </c>
       <c r="AJ11">
-        <v>0.091210707216026546</v>
+        <v>9.1210707216026546E-2</v>
       </c>
       <c r="AK11">
         <v>6.6055080790732497</v>
@@ -1880,11 +2244,15 @@
         <v>-1.5708016874097372</v>
       </c>
       <c r="BQ11">
-        <v>0.086869017892951331</v>
-      </c>
+        <v>8.6869017892951331E-2</v>
+      </c>
+      <c r="BR11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="8"/>
     </row>
-    <row r="12">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:71">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1906,10 +2274,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>28.379999999999999</v>
+        <v>28.38</v>
       </c>
       <c r="I12">
-        <v>29.489999999999998</v>
+        <v>29.49</v>
       </c>
       <c r="J12">
         <v>1.1099999999999994</v>
@@ -1930,7 +2298,7 @@
         <v>0.67955418049950689</v>
       </c>
       <c r="P12">
-        <v>-0.024464748470524319</v>
+        <v>-2.4464748470524319E-2</v>
       </c>
       <c r="AH12">
         <v>7676.4238095238061</v>
@@ -1957,7 +2325,7 @@
         <v>-0.24075424898755382</v>
       </c>
       <c r="AP12">
-        <v>0.0093069607950168401</v>
+        <v>9.3069607950168401E-3</v>
       </c>
       <c r="AQ12">
         <v>-1.9063055140745377</v>
@@ -1966,7 +2334,7 @@
         <v>-0.26168538552848108</v>
       </c>
       <c r="AS12">
-        <v>0.012851951823659424</v>
+        <v>1.2851951823659424E-2</v>
       </c>
       <c r="AT12">
         <v>1.7370623489253467</v>
@@ -2001,9 +2369,13 @@
       <c r="BQ12">
         <v>0.50305960965739571</v>
       </c>
+      <c r="BR12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS12" s="9"/>
     </row>
-    <row r="13">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:71">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -2025,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23.280000000000001</v>
+        <v>23.28</v>
       </c>
       <c r="I13">
-        <v>22.449999999999999</v>
+        <v>22.45</v>
       </c>
       <c r="J13">
         <v>-0.83000000000000185</v>
@@ -2120,9 +2492,13 @@
       <c r="BQ13">
         <v>0.26648606029351285</v>
       </c>
+      <c r="BR13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS13" s="3"/>
     </row>
-    <row r="14">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:71">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -2144,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>26.510000000000002</v>
+        <v>26.51</v>
       </c>
       <c r="I14">
-        <v>28.629999999999999</v>
+        <v>28.63</v>
       </c>
       <c r="J14">
         <v>2.1199999999999974</v>
@@ -2239,9 +2615,13 @@
       <c r="BQ14">
         <v>0.90435615109928313</v>
       </c>
+      <c r="BR14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS14" s="8"/>
     </row>
-    <row r="15">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:71">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -2263,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>23.489999999999998</v>
+        <v>23.49</v>
       </c>
       <c r="I15">
-        <v>26.190000000000001</v>
+        <v>26.19</v>
       </c>
       <c r="J15">
         <v>2.7000000000000028</v>
@@ -2358,9 +2738,15 @@
       <c r="BQ15">
         <v>1.251689909438054</v>
       </c>
+      <c r="BR15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="10" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="16">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:71">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -2382,13 +2768,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>26.609999999999999</v>
+        <v>26.61</v>
       </c>
       <c r="I16">
-        <v>26.559999999999999</v>
+        <v>26.56</v>
       </c>
       <c r="J16">
-        <v>-0.050000000000000711</v>
+        <v>-5.0000000000000711E-2</v>
       </c>
       <c r="K16">
         <v>7</v>
@@ -2477,9 +2863,12 @@
       <c r="BQ16">
         <v>-1.1989369421437799</v>
       </c>
+      <c r="BR16" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:71">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -2504,7 +2893,7 @@
         <v>27.25</v>
       </c>
       <c r="I17">
-        <v>30.010000000000002</v>
+        <v>30.01</v>
       </c>
       <c r="J17">
         <v>2.7600000000000016</v>
@@ -2561,7 +2950,7 @@
         <v>-0.67724582741209849</v>
       </c>
       <c r="AS17">
-        <v>-0.04405195470333044</v>
+        <v>-4.405195470333044E-2</v>
       </c>
       <c r="AT17">
         <v>1.2720088624414392</v>
@@ -2585,7 +2974,7 @@
         <v>1.6431650965610696</v>
       </c>
       <c r="BN17">
-        <v>-0.089167729050633943</v>
+        <v>-8.9167729050633943E-2</v>
       </c>
       <c r="BO17">
         <v>-1.5890942735051514</v>
@@ -2596,9 +2985,15 @@
       <c r="BQ17">
         <v>0.23145672245558882</v>
       </c>
+      <c r="BR17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="18">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:71">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -2715,9 +3110,15 @@
       <c r="BQ18">
         <v>-1.0425148005406744</v>
       </c>
+      <c r="BR18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS18" s="10" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="19">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:71">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -2739,10 +3140,10 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>28.449999999999999</v>
+        <v>28.45</v>
       </c>
       <c r="I19">
-        <v>29.559999999999999</v>
+        <v>29.56</v>
       </c>
       <c r="J19">
         <v>1.1099999999999994</v>
@@ -2834,9 +3235,15 @@
       <c r="BQ19">
         <v>0.63851403671458129</v>
       </c>
+      <c r="BR19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS19" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="20">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:71">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -2858,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26.039999999999999</v>
+        <v>26.04</v>
       </c>
       <c r="I20">
         <v>25.34</v>
@@ -2891,7 +3298,7 @@
         <v>1.2214044960221058</v>
       </c>
       <c r="AJ20">
-        <v>0.08685123678850816</v>
+        <v>8.685123678850816E-2</v>
       </c>
       <c r="AK20">
         <v>-11.265888757332572</v>
@@ -2912,7 +3319,7 @@
         <v>-2.2876357060478574</v>
       </c>
       <c r="AQ20">
-        <v>0.011041056467038712</v>
+        <v>1.1041056467038712E-2</v>
       </c>
       <c r="AR20">
         <v>0.40069864062169236</v>
@@ -2953,9 +3360,12 @@
       <c r="BQ20">
         <v>-0.79886542852421638</v>
       </c>
+      <c r="BR20" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:71">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -2977,10 +3387,10 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>25.309999999999999</v>
+        <v>25.31</v>
       </c>
       <c r="I21">
-        <v>24.850000000000001</v>
+        <v>24.85</v>
       </c>
       <c r="J21">
         <v>-0.4599999999999973</v>
@@ -3064,7 +3474,7 @@
         <v>-1.6109433271138713</v>
       </c>
       <c r="BO21">
-        <v>-0.074891323531275894</v>
+        <v>-7.4891323531275894E-2</v>
       </c>
       <c r="BP21">
         <v>1.8894787209152404</v>
@@ -3072,9 +3482,15 @@
       <c r="BQ21">
         <v>0.28887476852775129</v>
       </c>
+      <c r="BR21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS21" s="10" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="22">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:71">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -3096,10 +3512,10 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>24.719999999999999</v>
+        <v>24.72</v>
       </c>
       <c r="I22">
-        <v>24.969999999999999</v>
+        <v>24.97</v>
       </c>
       <c r="J22">
         <v>0.25</v>
@@ -3129,7 +3545,7 @@
         <v>1.6163040881643773</v>
       </c>
       <c r="AJ22">
-        <v>0.095649079805100873</v>
+        <v>9.5649079805100873E-2</v>
       </c>
       <c r="AK22">
         <v>-1.430304116368726</v>
@@ -3138,7 +3554,7 @@
         <v>-0.41827955306466436</v>
       </c>
       <c r="AM22">
-        <v>0.086242122160028981</v>
+        <v>8.6242122160028981E-2</v>
       </c>
       <c r="AN22">
         <v>0.78843429982993374</v>
@@ -3191,9 +3607,15 @@
       <c r="BQ22">
         <v>-1.7384803998697966</v>
       </c>
+      <c r="BR22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS22" s="11" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="23">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:71">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -3218,7 +3640,7 @@
         <v>24.43</v>
       </c>
       <c r="I23">
-        <v>26.579999999999998</v>
+        <v>26.58</v>
       </c>
       <c r="J23">
         <v>2.1499999999999986</v>
@@ -3236,7 +3658,7 @@
         <v>28.277385657820442</v>
       </c>
       <c r="O23">
-        <v>0.054007652579963011</v>
+        <v>5.4007652579963011E-2</v>
       </c>
       <c r="P23">
         <v>-1.6356531624328285</v>
@@ -3248,7 +3670,7 @@
         <v>1.4779358305343009</v>
       </c>
       <c r="AJ23">
-        <v>0.06937887530439811</v>
+        <v>6.937887530439811E-2</v>
       </c>
       <c r="AK23">
         <v>-1.7054421837177087</v>
@@ -3275,7 +3697,7 @@
         <v>-0.47778412747320603</v>
       </c>
       <c r="AS23">
-        <v>0.057730029536558182</v>
+        <v>5.7730029536558182E-2</v>
       </c>
       <c r="AT23">
         <v>2.066268573850234</v>
@@ -3310,9 +3732,12 @@
       <c r="BQ23">
         <v>-4.3767866042933532</v>
       </c>
+      <c r="BR23" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:71">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -3334,10 +3759,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>28.149999999999999</v>
+        <v>28.15</v>
       </c>
       <c r="I24">
-        <v>27.809999999999999</v>
+        <v>27.81</v>
       </c>
       <c r="J24">
         <v>-0.33999999999999986</v>
@@ -3367,7 +3792,7 @@
         <v>1.1162534335903211</v>
       </c>
       <c r="AJ24">
-        <v>0.063305354480998485</v>
+        <v>6.3305354480998485E-2</v>
       </c>
       <c r="AK24">
         <v>1.5516498262300265</v>
@@ -3418,7 +3843,7 @@
         <v>-0.68734264910368648</v>
       </c>
       <c r="BN24">
-        <v>-0.065772501610871989</v>
+        <v>-6.5772501610871989E-2</v>
       </c>
       <c r="BO24">
         <v>-3.2947502096888148</v>
@@ -3427,11 +3852,14 @@
         <v>1.2207979048778943</v>
       </c>
       <c r="BQ24">
-        <v>-0.067694410025424756</v>
+        <v>-6.7694410025424756E-2</v>
+      </c>
+      <c r="BR24" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:71">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -3453,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>24.120000000000001</v>
+        <v>24.12</v>
       </c>
       <c r="I25">
-        <v>25.879999999999999</v>
+        <v>25.88</v>
       </c>
       <c r="J25">
         <v>1.759999999999998</v>
@@ -3486,7 +3914,7 @@
         <v>2.5500309876612692</v>
       </c>
       <c r="AJ25">
-        <v>0.093894093007842835</v>
+        <v>9.3894093007842835E-2</v>
       </c>
       <c r="AK25">
         <v>-3.6415814296822782</v>
@@ -3548,9 +3976,12 @@
       <c r="BQ25">
         <v>4.8692601167456626</v>
       </c>
+      <c r="BR25" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:71">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -3572,10 +4003,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>25.260000000000002</v>
+        <v>25.26</v>
       </c>
       <c r="I26">
-        <v>26.890000000000001</v>
+        <v>26.89</v>
       </c>
       <c r="J26">
         <v>1.629999999999999</v>
@@ -3617,7 +4048,7 @@
         <v>0.38910295394417171</v>
       </c>
       <c r="AN26">
-        <v>-0.064664060114495145</v>
+        <v>-6.4664060114495145E-2</v>
       </c>
       <c r="AO26">
         <v>2.8526731197975996</v>
@@ -3635,7 +4066,7 @@
         <v>-0.8382021554053628</v>
       </c>
       <c r="AT26">
-        <v>0.0059487469044906781</v>
+        <v>5.9487469044906781E-3</v>
       </c>
       <c r="AU26">
         <v>-1.2124479227954585</v>
@@ -3656,7 +4087,7 @@
         <v>-0.58533729324612771</v>
       </c>
       <c r="BN26">
-        <v>0.025971403281722798</v>
+        <v>2.5971403281722798E-2</v>
       </c>
       <c r="BO26">
         <v>-2.6000150369097748</v>
@@ -3667,9 +4098,12 @@
       <c r="BQ26">
         <v>0.51668524679378092</v>
       </c>
+      <c r="BR26" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:71">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -3691,10 +4125,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>23.809999999999999</v>
+        <v>23.81</v>
       </c>
       <c r="I27">
-        <v>27.710000000000001</v>
+        <v>27.71</v>
       </c>
       <c r="J27">
         <v>3.9000000000000021</v>
@@ -3786,9 +4220,12 @@
       <c r="BQ27">
         <v>-1.5361307487499249</v>
       </c>
+      <c r="BR27" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:71">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -3822,7 +4259,7 @@
         <v>10</v>
       </c>
       <c r="L28">
-        <v>-23.899999999999999</v>
+        <v>-23.9</v>
       </c>
       <c r="M28">
         <v>10</v>
@@ -3843,7 +4280,7 @@
         <v>1.4834015360942128</v>
       </c>
       <c r="AJ28">
-        <v>0.078509346212703918</v>
+        <v>7.8509346212703918E-2</v>
       </c>
       <c r="AK28">
         <v>-4.0188560523534598</v>
@@ -3905,9 +4342,15 @@
       <c r="BQ28">
         <v>-0.37112509184591141</v>
       </c>
+      <c r="BR28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS28" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="29">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:71">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -3929,13 +4372,13 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>26.239999999999998</v>
+        <v>26.24</v>
       </c>
       <c r="I29">
-        <v>26.280000000000001</v>
+        <v>26.28</v>
       </c>
       <c r="J29">
-        <v>0.0400000000000027</v>
+        <v>4.00000000000027E-2</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -4024,9 +4467,15 @@
       <c r="BQ29">
         <v>0.69824894318792574</v>
       </c>
+      <c r="BR29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS29" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="30">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:71">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -4048,10 +4497,10 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>24.559999999999999</v>
+        <v>24.56</v>
       </c>
       <c r="I30">
-        <v>25.989999999999998</v>
+        <v>25.99</v>
       </c>
       <c r="J30">
         <v>1.4299999999999997</v>
@@ -4081,7 +4530,7 @@
         <v>1.786748068353893</v>
       </c>
       <c r="AJ30">
-        <v>0.076888681912865728</v>
+        <v>7.6888681912865728E-2</v>
       </c>
       <c r="AK30">
         <v>-4.5740503152462706</v>
@@ -4099,7 +4548,7 @@
         <v>-0.30993515471976579</v>
       </c>
       <c r="AP30">
-        <v>-0.023676405720674604</v>
+        <v>-2.3676405720674604E-2</v>
       </c>
       <c r="AQ30">
         <v>3.2137050004522698</v>
@@ -4143,9 +4592,15 @@
       <c r="BQ30">
         <v>1.5488157840067613</v>
       </c>
+      <c r="BR30" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS30" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="31">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:71">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -4167,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>23.809999999999999</v>
+        <v>23.81</v>
       </c>
       <c r="I31">
         <v>24.25</v>
@@ -4200,7 +4655,7 @@
         <v>1.2559669164293448</v>
       </c>
       <c r="AJ31">
-        <v>0.077978249212813197</v>
+        <v>7.7978249212813197E-2</v>
       </c>
       <c r="AK31">
         <v>-0.90109599260539797</v>
@@ -4215,7 +4670,7 @@
         <v>-0.33482412279733686</v>
       </c>
       <c r="AO31">
-        <v>0.0011150299823922375</v>
+        <v>1.1150299823922375E-3</v>
       </c>
       <c r="AP31">
         <v>-1.4610921809998141</v>
@@ -4236,7 +4691,7 @@
         <v>-0.29649100192647454</v>
       </c>
       <c r="BI31">
-        <v>0.04088887714015349</v>
+        <v>4.088887714015349E-2</v>
       </c>
       <c r="BJ31">
         <v>-4.6569068361134889</v>
@@ -4262,9 +4717,12 @@
       <c r="BQ31">
         <v>-1.0636757166057205</v>
       </c>
+      <c r="BR31" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:71">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -4289,7 +4747,7 @@
         <v>23.82</v>
       </c>
       <c r="I32">
-        <v>25.879999999999999</v>
+        <v>25.88</v>
       </c>
       <c r="J32">
         <v>2.0599999999999987</v>
@@ -4319,7 +4777,7 @@
         <v>1.4050996358244741</v>
       </c>
       <c r="AJ32">
-        <v>0.070226850441047109</v>
+        <v>7.0226850441047109E-2</v>
       </c>
       <c r="AK32">
         <v>0.23107393107543384</v>
@@ -4381,9 +4839,13 @@
       <c r="BQ32">
         <v>-1.9169455694423005</v>
       </c>
+      <c r="BR32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS32" s="12"/>
     </row>
-    <row r="33">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:71">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -4405,10 +4867,10 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>27.030000000000001</v>
+        <v>27.03</v>
       </c>
       <c r="I33">
-        <v>28.469999999999999</v>
+        <v>28.47</v>
       </c>
       <c r="J33">
         <v>1.4399999999999977</v>
@@ -4465,10 +4927,10 @@
         <v>3.6195972005855963</v>
       </c>
       <c r="AS33">
-        <v>-0.047317689694456752</v>
+        <v>-4.7317689694456752E-2</v>
       </c>
       <c r="AT33">
-        <v>0.034264286687319498</v>
+        <v>3.4264286687319498E-2</v>
       </c>
       <c r="AU33">
         <v>-3.7987784142259153</v>
@@ -4495,14 +4957,20 @@
         <v>4.0820473826983852</v>
       </c>
       <c r="BP33">
-        <v>0.024035530854009259</v>
+        <v>2.4035530854009259E-2</v>
       </c>
       <c r="BQ33">
         <v>2.6075624034169866</v>
       </c>
+      <c r="BR33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS33" s="10" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="34">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:71">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -4524,10 +4992,10 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>24.809999999999999</v>
+        <v>24.81</v>
       </c>
       <c r="I34">
-        <v>26.579999999999998</v>
+        <v>26.58</v>
       </c>
       <c r="J34">
         <v>1.7699999999999996</v>
@@ -4548,7 +5016,7 @@
         <v>-8.3945576235884456</v>
       </c>
       <c r="P34">
-        <v>0.010056655400572207</v>
+        <v>1.0056655400572207E-2</v>
       </c>
       <c r="AH34">
         <v>3173.3184523809518</v>
@@ -4557,7 +5025,7 @@
         <v>1.6746438985551975</v>
       </c>
       <c r="AJ34">
-        <v>0.063334630733374891</v>
+        <v>6.3334630733374891E-2</v>
       </c>
       <c r="AK34">
         <v>-1.2588306216135003</v>
@@ -4619,9 +5087,15 @@
       <c r="BQ34">
         <v>2.6755783057785076</v>
       </c>
+      <c r="BR34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS34" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="35">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:71">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -4676,7 +5150,7 @@
         <v>1.4218449002631552</v>
       </c>
       <c r="AJ35">
-        <v>0.061985600048151825</v>
+        <v>6.1985600048151825E-2</v>
       </c>
       <c r="AK35">
         <v>1.913458302131201</v>
@@ -4727,7 +5201,7 @@
         <v>-1.0163765364154025</v>
       </c>
       <c r="BN35">
-        <v>0.093640234842615758</v>
+        <v>9.3640234842615758E-2</v>
       </c>
       <c r="BO35">
         <v>-3.5973002741227234</v>
@@ -4738,9 +5212,13 @@
       <c r="BQ35">
         <v>-3.5402517765602903</v>
       </c>
+      <c r="BR35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS35" s="3"/>
     </row>
-    <row r="36">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:71">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -4762,10 +5240,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>24.379999999999999</v>
+        <v>24.38</v>
       </c>
       <c r="I36">
-        <v>24.489999999999998</v>
+        <v>24.49</v>
       </c>
       <c r="J36">
         <v>0.10999999999999943</v>
@@ -4807,7 +5285,7 @@
         <v>-3.2539359839964384</v>
       </c>
       <c r="AN36">
-        <v>0.015106607621332868</v>
+        <v>1.5106607621332868E-2</v>
       </c>
       <c r="AO36">
         <v>1.3446805663243675</v>
@@ -4849,7 +5327,7 @@
         <v>-1.5419865439411358</v>
       </c>
       <c r="BO36">
-        <v>0.063341152259875882</v>
+        <v>6.3341152259875882E-2</v>
       </c>
       <c r="BP36">
         <v>-0.7376869995392461</v>
@@ -4857,9 +5335,12 @@
       <c r="BQ36">
         <v>-3.3834115758486702</v>
       </c>
+      <c r="BR36" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:71">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -4881,10 +5362,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>26.079999999999998</v>
+        <v>26.08</v>
       </c>
       <c r="I37">
-        <v>26.969999999999999</v>
+        <v>26.97</v>
       </c>
       <c r="J37">
         <v>0.89000000000000057</v>
@@ -4914,7 +5395,7 @@
         <v>1.5454542392970172</v>
       </c>
       <c r="AJ37">
-        <v>0.082142590654806141</v>
+        <v>8.2142590654806141E-2</v>
       </c>
       <c r="AK37">
         <v>2.7384061635682175</v>
@@ -4938,7 +5419,7 @@
         <v>0.15094447279210291</v>
       </c>
       <c r="AR37">
-        <v>-0.056522657595115662</v>
+        <v>-5.6522657595115662E-2</v>
       </c>
       <c r="AS37">
         <v>-0.28486977356136262</v>
@@ -4947,7 +5428,7 @@
         <v>-4.458228822689259</v>
       </c>
       <c r="AU37">
-        <v>-0.059756151236000053</v>
+        <v>-5.9756151236000053E-2</v>
       </c>
       <c r="BI37">
         <v>-1.8613767160739705</v>
@@ -4976,9 +5457,12 @@
       <c r="BQ37">
         <v>-0.23348813103697216</v>
       </c>
+      <c r="BR37" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:71">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -5000,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>24.780000000000001</v>
+        <v>24.78</v>
       </c>
       <c r="I38">
         <v>25.91</v>
@@ -5033,7 +5517,7 @@
         <v>1.4822346520514535</v>
       </c>
       <c r="AJ38">
-        <v>0.074192851577493557</v>
+        <v>7.4192851577493557E-2</v>
       </c>
       <c r="AK38">
         <v>-4.6337517671736501</v>
@@ -5095,9 +5579,12 @@
       <c r="BQ38">
         <v>3.2967774224945474</v>
       </c>
+      <c r="BR38" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:71">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -5119,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>25.739999999999998</v>
+        <v>25.74</v>
       </c>
       <c r="I39">
-        <v>26.329999999999998</v>
+        <v>26.33</v>
       </c>
       <c r="J39">
         <v>0.58999999999999986</v>
@@ -5152,7 +5639,7 @@
         <v>2.0272574172923132</v>
       </c>
       <c r="AJ39">
-        <v>0.05885368195093886</v>
+        <v>5.885368195093886E-2</v>
       </c>
       <c r="AK39">
         <v>4.4070110703021195</v>
@@ -5214,9 +5701,13 @@
       <c r="BQ39">
         <v>-1.7579917109172098</v>
       </c>
+      <c r="BR39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS39" s="3"/>
     </row>
-    <row r="40">
-      <c r="A40" s="11" t="s">
+    <row r="40" spans="1:71">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -5241,7 +5732,7 @@
         <v>24.07</v>
       </c>
       <c r="I40">
-        <v>25.739999999999998</v>
+        <v>25.74</v>
       </c>
       <c r="J40">
         <v>1.6699999999999982</v>
@@ -5271,7 +5762,7 @@
         <v>0.87677390414075485</v>
       </c>
       <c r="AJ40">
-        <v>0.074417223864609042</v>
+        <v>7.4417223864609042E-2</v>
       </c>
       <c r="AK40">
         <v>0.57770648426043203</v>
@@ -5333,9 +5824,15 @@
       <c r="BQ40">
         <v>1.6463421311967876</v>
       </c>
+      <c r="BR40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS40" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="41">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:71">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -5357,10 +5854,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>25.780000000000001</v>
+        <v>25.78</v>
       </c>
       <c r="I41">
-        <v>26.260000000000002</v>
+        <v>26.26</v>
       </c>
       <c r="J41">
         <v>0.48000000000000043</v>
@@ -5390,7 +5887,7 @@
         <v>1.6901126511630555</v>
       </c>
       <c r="AJ41">
-        <v>0.065646539346453051</v>
+        <v>6.5646539346453051E-2</v>
       </c>
       <c r="AK41">
         <v>-2.8121302388743588</v>
@@ -5452,9 +5949,12 @@
       <c r="BQ41">
         <v>-0.70406264677283792</v>
       </c>
+      <c r="BR41" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:71">
+      <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B42">
@@ -5479,7 +5979,7 @@
         <v>26.18</v>
       </c>
       <c r="I42">
-        <v>26.719999999999999</v>
+        <v>26.72</v>
       </c>
       <c r="J42">
         <v>0.53999999999999915</v>
@@ -5497,7 +5997,7 @@
         <v>-28.712418300653596</v>
       </c>
       <c r="O42">
-        <v>-0.060513774396610515</v>
+        <v>-6.0513774396610515E-2</v>
       </c>
       <c r="P42">
         <v>1.8629773115604711</v>
@@ -5533,7 +6033,7 @@
         <v>-0.7500220807807475</v>
       </c>
       <c r="AR42">
-        <v>0.065546764603188257</v>
+        <v>6.5546764603188257E-2</v>
       </c>
       <c r="AS42">
         <v>0.69933168353911246</v>
@@ -5571,9 +6071,13 @@
       <c r="BQ42">
         <v>-0.25922609606626246</v>
       </c>
+      <c r="BR42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS42" s="13"/>
     </row>
-    <row r="43">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:71">
+      <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B43">
@@ -5595,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>26.260000000000002</v>
+        <v>26.26</v>
       </c>
       <c r="I43">
         <v>27.98</v>
@@ -5690,9 +6194,15 @@
       <c r="BQ43">
         <v>-0.79156884055741339</v>
       </c>
+      <c r="BR43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS43" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="44">
-      <c r="A44" s="11" t="s">
+    <row r="44" spans="1:71">
+      <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B44">
@@ -5717,7 +6227,7 @@
         <v>27.02</v>
       </c>
       <c r="I44">
-        <v>29.809999999999999</v>
+        <v>29.81</v>
       </c>
       <c r="J44">
         <v>2.7899999999999991</v>
@@ -5809,9 +6319,12 @@
       <c r="BQ44">
         <v>-3.8701836122356843</v>
       </c>
+      <c r="BR44" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:71">
+      <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B45">
@@ -5833,10 +6346,10 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>28.109999999999999</v>
+        <v>28.11</v>
       </c>
       <c r="I45">
-        <v>30.109999999999999</v>
+        <v>30.11</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -5928,9 +6441,15 @@
       <c r="BQ45">
         <v>-0.45693345048770029</v>
       </c>
+      <c r="BR45" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS45" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="46">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:71">
+      <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B46">
@@ -5955,7 +6474,7 @@
         <v>24.43</v>
       </c>
       <c r="I46">
-        <v>25.469999999999999</v>
+        <v>25.47</v>
       </c>
       <c r="J46">
         <v>1.0399999999999991</v>
@@ -6027,7 +6546,7 @@
         <v>0.65810623101955124</v>
       </c>
       <c r="BK46">
-        <v>-0.0830562360835949</v>
+        <v>-8.30562360835949E-2</v>
       </c>
       <c r="BL46">
         <v>3.0516834185454078</v>
@@ -6047,9 +6566,15 @@
       <c r="BQ46">
         <v>-3.4896352249259115</v>
       </c>
+      <c r="BR46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS46" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="47">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:71">
+      <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B47">
@@ -6071,10 +6596,10 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>26.420000000000002</v>
+        <v>26.42</v>
       </c>
       <c r="I47">
-        <v>28.219999999999999</v>
+        <v>28.22</v>
       </c>
       <c r="J47">
         <v>1.7999999999999972</v>
@@ -6092,7 +6617,7 @@
         <v>6.674630924630927</v>
       </c>
       <c r="O47">
-        <v>-0.016758629196768765</v>
+        <v>-1.6758629196768765E-2</v>
       </c>
       <c r="P47">
         <v>1.20246766131873</v>
@@ -6166,9 +6691,15 @@
       <c r="BQ47">
         <v>0.91378280618618479</v>
       </c>
+      <c r="BR47" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS47" s="14" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="48">
-      <c r="A48" s="11" t="s">
+    <row r="48" spans="1:71">
+      <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B48">
@@ -6193,7 +6724,7 @@
         <v>26.52</v>
       </c>
       <c r="I48">
-        <v>28.120000000000001</v>
+        <v>28.12</v>
       </c>
       <c r="J48">
         <v>1.6000000000000014</v>
@@ -6235,13 +6766,13 @@
         <v>-1.463614102833436</v>
       </c>
       <c r="AN48">
-        <v>0.043246627468282617</v>
+        <v>4.3246627468282617E-2</v>
       </c>
       <c r="AO48">
         <v>0.75087222025818556</v>
       </c>
       <c r="AP48">
-        <v>0.095957409570754063</v>
+        <v>9.5957409570754063E-2</v>
       </c>
       <c r="AQ48">
         <v>-0.31658144457723986</v>
@@ -6271,7 +6802,7 @@
         <v>-0.38416602830592567</v>
       </c>
       <c r="BM48">
-        <v>-0.070255976190350469</v>
+        <v>-7.0255976190350469E-2</v>
       </c>
       <c r="BN48">
         <v>0.56356036891045869</v>
@@ -6285,9 +6816,12 @@
       <c r="BQ48">
         <v>-1.1980416651203039</v>
       </c>
+      <c r="BR48" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49">
-      <c r="A49" s="11" t="s">
+    <row r="49" spans="1:71">
+      <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B49">
@@ -6312,7 +6846,7 @@
         <v>28.52</v>
       </c>
       <c r="I49">
-        <v>30.640000000000001</v>
+        <v>30.64</v>
       </c>
       <c r="J49">
         <v>2.120000000000001</v>
@@ -6390,7 +6924,7 @@
         <v>2.1550290476735268</v>
       </c>
       <c r="BM49">
-        <v>-0.089357616618923164</v>
+        <v>-8.9357616618923164E-2</v>
       </c>
       <c r="BN49">
         <v>0.21898166930916643</v>
@@ -6404,9 +6938,12 @@
       <c r="BQ49">
         <v>-2.3933516478086116</v>
       </c>
+      <c r="BR49" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50">
-      <c r="A50" s="11" t="s">
+    <row r="50" spans="1:71">
+      <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B50">
@@ -6428,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>26.559999999999999</v>
+        <v>26.56</v>
       </c>
       <c r="I50">
         <v>28.73</v>
@@ -6523,9 +7060,13 @@
       <c r="BQ50">
         <v>-0.18288498384502655</v>
       </c>
+      <c r="BR50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS50" s="8"/>
     </row>
-    <row r="51">
-      <c r="A51" s="11" t="s">
+    <row r="51" spans="1:71">
+      <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B51">
@@ -6547,10 +7088,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>28.039999999999999</v>
+        <v>28.04</v>
       </c>
       <c r="I51">
-        <v>30.489999999999998</v>
+        <v>30.49</v>
       </c>
       <c r="J51">
         <v>2.4499999999999993</v>
@@ -6642,9 +7183,13 @@
       <c r="BQ51">
         <v>0.77090810347527294</v>
       </c>
+      <c r="BR51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS51" s="8"/>
     </row>
-    <row r="52">
-      <c r="A52" s="11" t="s">
+    <row r="52" spans="1:71">
+      <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B52">
@@ -6666,10 +7211,10 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>25.239999999999998</v>
+        <v>25.24</v>
       </c>
       <c r="I52">
-        <v>25.510000000000002</v>
+        <v>25.51</v>
       </c>
       <c r="J52">
         <v>0.27000000000000313</v>
@@ -6696,7 +7241,7 @@
         <v>0.15482404099470171</v>
       </c>
       <c r="R52">
-        <v>0.45000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -6714,7 +7259,7 @@
         <v>0.29416914356833773</v>
       </c>
       <c r="X52">
-        <v>-0.019788963163800785</v>
+        <v>-1.9788963163800785E-2</v>
       </c>
       <c r="Y52">
         <v>3.4351998917022382</v>
@@ -6756,10 +7301,10 @@
         <v>5.5883174669079558</v>
       </c>
       <c r="AL52">
-        <v>-0.027285608947729183</v>
+        <v>-2.7285608947729183E-2</v>
       </c>
       <c r="AM52">
-        <v>0.012966961173264074</v>
+        <v>1.2966961173264074E-2</v>
       </c>
       <c r="AN52">
         <v>-0.13561500450724692</v>
@@ -6851,9 +7396,15 @@
       <c r="BQ52">
         <v>0.19540253557278547</v>
       </c>
+      <c r="BR52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS52" s="11" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="53">
-      <c r="A53" s="11" t="s">
+    <row r="53" spans="1:71">
+      <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B53">
@@ -6875,10 +7426,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>26.489999999999998</v>
+        <v>26.49</v>
       </c>
       <c r="I53">
-        <v>27.789999999999999</v>
+        <v>27.79</v>
       </c>
       <c r="J53">
         <v>1.3000000000000007</v>
@@ -6905,7 +7456,7 @@
         <v>-0.48207634618525608</v>
       </c>
       <c r="R53">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S53">
         <v>1.2857142857142856</v>
@@ -6941,7 +7492,7 @@
         <v>1.4987568258252573</v>
       </c>
       <c r="AD53">
-        <v>0.030895851983782096</v>
+        <v>3.0895851983782096E-2</v>
       </c>
       <c r="AE53">
         <v>-0.62301968915687644</v>
@@ -7007,7 +7558,7 @@
         <v>2.4230454475250984</v>
       </c>
       <c r="AZ53">
-        <v>-0.041545484757866791</v>
+        <v>-4.1545484757866791E-2</v>
       </c>
       <c r="BA53">
         <v>-2.7864578563360616</v>
@@ -7060,9 +7611,12 @@
       <c r="BQ53">
         <v>0.17213248934831626</v>
       </c>
+      <c r="BR53" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:71">
+      <c r="A54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B54">
@@ -7087,7 +7641,7 @@
         <v>28.75</v>
       </c>
       <c r="I54">
-        <v>29.530000000000001</v>
+        <v>29.53</v>
       </c>
       <c r="J54">
         <v>0.78000000000000114</v>
@@ -7114,10 +7668,10 @@
         <v>-0.2581379192652139</v>
       </c>
       <c r="R54">
-        <v>0.45000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="S54">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="T54">
         <v>0.90909090909090906</v>
@@ -7207,7 +7761,7 @@
         <v>2.0728914958327351</v>
       </c>
       <c r="AW54">
-        <v>-0.052767694876704803</v>
+        <v>-5.2767694876704803E-2</v>
       </c>
       <c r="AX54">
         <v>3.5876103212543895</v>
@@ -7269,9 +7823,12 @@
       <c r="BQ54">
         <v>-0.38330566321349496</v>
       </c>
+      <c r="BR54" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55">
-      <c r="A55" s="11" t="s">
+    <row r="55" spans="1:71">
+      <c r="A55" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B55">
@@ -7293,10 +7850,10 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>25.719999999999999</v>
+        <v>25.72</v>
       </c>
       <c r="I55">
-        <v>27.609999999999999</v>
+        <v>27.61</v>
       </c>
       <c r="J55">
         <v>1.8900000000000006</v>
@@ -7368,7 +7925,7 @@
         <v>-0.48921786977989062</v>
       </c>
       <c r="AG55">
-        <v>-0.034553452411540703</v>
+        <v>-3.4553452411540703E-2</v>
       </c>
       <c r="AH55">
         <v>4785.6388888888878</v>
@@ -7422,7 +7979,7 @@
         <v>-3.0943847637649933</v>
       </c>
       <c r="AY55">
-        <v>0.027273593338568818</v>
+        <v>2.7273593338568818E-2</v>
       </c>
       <c r="AZ55">
         <v>-2.9749908216950698</v>
@@ -7443,7 +8000,7 @@
         <v>1.3961032443751189</v>
       </c>
       <c r="BF55">
-        <v>-0.064083546883964601</v>
+        <v>-6.4083546883964601E-2</v>
       </c>
       <c r="BG55">
         <v>-0.66525186563304672</v>
@@ -7478,9 +8035,13 @@
       <c r="BQ55">
         <v>1.7066149442613692</v>
       </c>
+      <c r="BR55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS55" s="3"/>
     </row>
-    <row r="56">
-      <c r="A56" s="11" t="s">
+    <row r="56" spans="1:71">
+      <c r="A56" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B56">
@@ -7502,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>26.670000000000002</v>
+        <v>26.67</v>
       </c>
       <c r="I56">
-        <v>27.859999999999999</v>
+        <v>27.86</v>
       </c>
       <c r="J56">
         <v>1.1899999999999977</v>
@@ -7532,10 +8093,10 @@
         <v>0.65757131354293619</v>
       </c>
       <c r="R56">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S56">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="T56">
         <v>1.4000000000000001</v>
@@ -7568,7 +8129,7 @@
         <v>-0.64192411735837285</v>
       </c>
       <c r="AD56">
-        <v>0.079406364508388061</v>
+        <v>7.9406364508388061E-2</v>
       </c>
       <c r="AE56">
         <v>-0.35573509770823369</v>
@@ -7604,7 +8165,7 @@
         <v>-0.87479271949258519</v>
       </c>
       <c r="AP56">
-        <v>0.071744068735283079</v>
+        <v>7.1744068735283079E-2</v>
       </c>
       <c r="AQ56">
         <v>-1.7131104633732779</v>
@@ -7652,7 +8213,7 @@
         <v>0.53983796747229196</v>
       </c>
       <c r="BF56">
-        <v>-0.050538691650425863</v>
+        <v>-5.0538691650425863E-2</v>
       </c>
       <c r="BG56">
         <v>-0.7089232913108402</v>
@@ -7687,9 +8248,12 @@
       <c r="BQ56">
         <v>-1.8947045039009569</v>
       </c>
+      <c r="BR56" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:71">
+      <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B57">
@@ -7711,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>26.870000000000001</v>
+        <v>26.87</v>
       </c>
       <c r="I57">
-        <v>28.280000000000001</v>
+        <v>28.28</v>
       </c>
       <c r="J57">
         <v>1.4100000000000001</v>
@@ -7738,10 +8302,10 @@
         <v>-0.22896994016571096</v>
       </c>
       <c r="Q57">
-        <v>0.065516067894631866</v>
+        <v>6.5516067894631866E-2</v>
       </c>
       <c r="R57">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -7759,7 +8323,7 @@
         <v>1.8313611111425718</v>
       </c>
       <c r="X57">
-        <v>0.011244085162856398</v>
+        <v>1.1244085162856398E-2</v>
       </c>
       <c r="Y57">
         <v>1.694357556829456</v>
@@ -7774,7 +8338,7 @@
         <v>3.821602676418439</v>
       </c>
       <c r="AC57">
-        <v>0.075963901478377102</v>
+        <v>7.5963901478377102E-2</v>
       </c>
       <c r="AD57">
         <v>1.4485193365932605</v>
@@ -7789,7 +8353,7 @@
         <v>-0.70140208674133075</v>
       </c>
       <c r="AH57">
-        <v>3753.4400000000001</v>
+        <v>3753.44</v>
       </c>
       <c r="AI57">
         <v>1.3427647239030951</v>
@@ -7822,7 +8386,7 @@
         <v>2.3577232939754236</v>
       </c>
       <c r="AS57">
-        <v>0.050084258321965863</v>
+        <v>5.0084258321965863E-2</v>
       </c>
       <c r="AT57">
         <v>-0.67053286563615033</v>
@@ -7834,7 +8398,7 @@
         <v>1.3133713916246164</v>
       </c>
       <c r="AW57">
-        <v>0.0011572713423572845</v>
+        <v>1.1572713423572845E-3</v>
       </c>
       <c r="AX57">
         <v>2.0379279323228863</v>
@@ -7896,9 +8460,12 @@
       <c r="BQ57">
         <v>1.1549099144586012</v>
       </c>
+      <c r="BR57" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58">
-      <c r="A58" s="11" t="s">
+    <row r="58" spans="1:71">
+      <c r="A58" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B58">
@@ -7920,10 +8487,10 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>25.829999999999998</v>
+        <v>25.83</v>
       </c>
       <c r="I58">
-        <v>26.260000000000002</v>
+        <v>26.26</v>
       </c>
       <c r="J58">
         <v>0.43000000000000327</v>
@@ -7950,7 +8517,7 @@
         <v>0.39966867206384371</v>
       </c>
       <c r="R58">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S58">
         <v>1</v>
@@ -8064,7 +8631,7 @@
         <v>1.4466290097317893</v>
       </c>
       <c r="BD58">
-        <v>-0.06660684783275124</v>
+        <v>-6.660684783275124E-2</v>
       </c>
       <c r="BE58">
         <v>0.63409911698916588</v>
@@ -8105,9 +8672,15 @@
       <c r="BQ58">
         <v>-0.82496728509975759</v>
       </c>
+      <c r="BR58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS58" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="59">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:71">
+      <c r="A59" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B59">
@@ -8132,7 +8705,7 @@
         <v>27.41</v>
       </c>
       <c r="I59">
-        <v>28.219999999999999</v>
+        <v>28.22</v>
       </c>
       <c r="J59">
         <v>0.80999999999999872</v>
@@ -8252,7 +8825,7 @@
         <v>1.0650898826881561</v>
       </c>
       <c r="AW59">
-        <v>0.051570356757726608</v>
+        <v>5.1570356757726608E-2</v>
       </c>
       <c r="AX59">
         <v>1.6464017902340768</v>
@@ -8314,9 +8887,15 @@
       <c r="BQ59">
         <v>-2.6214099234182768</v>
       </c>
+      <c r="BR59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS59" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="60">
-      <c r="A60" s="11" t="s">
+    <row r="60" spans="1:71">
+      <c r="A60" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B60">
@@ -8338,10 +8917,10 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>26.760000000000002</v>
+        <v>26.76</v>
       </c>
       <c r="I60">
-        <v>27.329999999999998</v>
+        <v>27.33</v>
       </c>
       <c r="J60">
         <v>0.56999999999999673</v>
@@ -8365,10 +8944,10 @@
         <v>-0.43203053901996052</v>
       </c>
       <c r="Q60">
-        <v>0.092330131554186262</v>
+        <v>9.2330131554186262E-2</v>
       </c>
       <c r="R60">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="S60">
         <v>2.5</v>
@@ -8386,7 +8965,7 @@
         <v>0.71299778382944079</v>
       </c>
       <c r="X60">
-        <v>-0.051091535081821113</v>
+        <v>-5.1091535081821113E-2</v>
       </c>
       <c r="Y60">
         <v>-0.49823519898190172</v>
@@ -8404,7 +8983,7 @@
         <v>0.4938877362421295</v>
       </c>
       <c r="AD60">
-        <v>0.028243458234424063</v>
+        <v>2.8243458234424063E-2</v>
       </c>
       <c r="AE60">
         <v>-2.3096091627811224</v>
@@ -8443,7 +9022,7 @@
         <v>0.31055540888204519</v>
       </c>
       <c r="AQ60">
-        <v>0.053854422376376117</v>
+        <v>5.3854422376376117E-2</v>
       </c>
       <c r="AR60">
         <v>-0.92398047297273378</v>
@@ -8452,10 +9031,10 @@
         <v>0.84237941721952736</v>
       </c>
       <c r="AT60">
-        <v>0.0028870153744941325</v>
+        <v>2.8870153744941325E-3</v>
       </c>
       <c r="AU60">
-        <v>-0.0010091325937290679</v>
+        <v>-1.0091325937290679E-3</v>
       </c>
       <c r="AV60">
         <v>1.21139567663619</v>
@@ -8500,7 +9079,7 @@
         <v>-1.4505483735863229</v>
       </c>
       <c r="BJ60">
-        <v>0.072654021591477325</v>
+        <v>7.2654021591477325E-2</v>
       </c>
       <c r="BK60">
         <v>-1.8441841614423169</v>
@@ -8523,9 +9102,12 @@
       <c r="BQ60">
         <v>-1.7622313480238705</v>
       </c>
+      <c r="BR60" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61">
-      <c r="A61" s="11" t="s">
+    <row r="61" spans="1:71">
+      <c r="A61" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B61">
@@ -8550,7 +9132,7 @@
         <v>24.34</v>
       </c>
       <c r="I61">
-        <v>25.129999999999999</v>
+        <v>25.13</v>
       </c>
       <c r="J61">
         <v>0.78999999999999915</v>
@@ -8595,7 +9177,7 @@
         <v>1.3681800213225077</v>
       </c>
       <c r="X61">
-        <v>0.011235159694234177</v>
+        <v>1.1235159694234177E-2</v>
       </c>
       <c r="Y61">
         <v>3.8321207046907575</v>
@@ -8634,7 +9216,7 @@
         <v>0.21262397179870446</v>
       </c>
       <c r="AK61">
-        <v>-0.031633348756357753</v>
+        <v>-3.1633348756357753E-2</v>
       </c>
       <c r="AL61">
         <v>-1.7054603720466339</v>
@@ -8649,7 +9231,7 @@
         <v>-1.2043584358306365</v>
       </c>
       <c r="AP61">
-        <v>-0.076460981909873785</v>
+        <v>-7.6460981909873785E-2</v>
       </c>
       <c r="AQ61">
         <v>0.58534632973888268</v>
@@ -8685,7 +9267,7 @@
         <v>-0.27234741804874246</v>
       </c>
       <c r="BB61">
-        <v>-0.042007124882269042</v>
+        <v>-4.2007124882269042E-2</v>
       </c>
       <c r="BC61">
         <v>-0.20202262045199121</v>
@@ -8715,7 +9297,7 @@
         <v>-1.6905852074174479</v>
       </c>
       <c r="BL61">
-        <v>0.075377306718300799</v>
+        <v>7.5377306718300799E-2</v>
       </c>
       <c r="BM61">
         <v>0.54069455898616214</v>
@@ -8732,9 +9314,12 @@
       <c r="BQ61">
         <v>-1.7780243091485564</v>
       </c>
+      <c r="BR61" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62">
-      <c r="A62" s="11" t="s">
+    <row r="62" spans="1:71">
+      <c r="A62" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B62">
@@ -8756,10 +9341,10 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>25.190000000000001</v>
+        <v>25.19</v>
       </c>
       <c r="I62">
-        <v>28.579999999999998</v>
+        <v>28.58</v>
       </c>
       <c r="J62">
         <v>3.389999999999997</v>
@@ -8780,7 +9365,7 @@
         <v>1.2027849625564115</v>
       </c>
       <c r="P62">
-        <v>-0.053208402125631292</v>
+        <v>-5.3208402125631292E-2</v>
       </c>
       <c r="Q62">
         <v>0.74521394936805052</v>
@@ -8831,7 +9416,7 @@
         <v>1.5127966095386398</v>
       </c>
       <c r="AH62">
-        <v>5510.1300000000001</v>
+        <v>5510.13</v>
       </c>
       <c r="AI62">
         <v>1.7414366582762852</v>
@@ -8897,7 +9482,7 @@
         <v>-1.9160807873316592</v>
       </c>
       <c r="BD62">
-        <v>-0.065400639780952022</v>
+        <v>-6.5400639780952022E-2</v>
       </c>
       <c r="BE62">
         <v>5.4437045663798633</v>
@@ -8930,7 +9515,7 @@
         <v>-1.4207763672491582</v>
       </c>
       <c r="BO62">
-        <v>-0.096077369023054776</v>
+        <v>-9.6077369023054776E-2</v>
       </c>
       <c r="BP62">
         <v>2.100482019674049</v>
@@ -8938,9 +9523,13 @@
       <c r="BQ62">
         <v>1.4110322276998155</v>
       </c>
+      <c r="BR62" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS62" s="12"/>
     </row>
-    <row r="63">
-      <c r="A63" s="11" t="s">
+    <row r="63" spans="1:71">
+      <c r="A63" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B63">
@@ -8962,10 +9551,10 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>29.210000000000001</v>
+        <v>29.21</v>
       </c>
       <c r="I63">
-        <v>29.879999999999999</v>
+        <v>29.88</v>
       </c>
       <c r="J63">
         <v>0.66999999999999815</v>
@@ -9016,7 +9605,7 @@
         <v>1.0842235227864059</v>
       </c>
       <c r="Z63">
-        <v>-0.091646881715210238</v>
+        <v>-9.1646881715210238E-2</v>
       </c>
       <c r="AA63">
         <v>-1.114709197980964</v>
@@ -9142,14 +9731,20 @@
         <v>2.9578474966364592</v>
       </c>
       <c r="BP63">
-        <v>-0.040450538185402542</v>
+        <v>-4.0450538185402542E-2</v>
       </c>
       <c r="BQ63">
         <v>2.5665610245645891</v>
       </c>
+      <c r="BR63" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS63" s="10" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="64">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:71">
+      <c r="A64" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B64">
@@ -9171,10 +9766,10 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>25.859999999999999</v>
+        <v>25.86</v>
       </c>
       <c r="I64">
-        <v>28.039999999999999</v>
+        <v>28.04</v>
       </c>
       <c r="J64">
         <v>2.1799999999999997</v>
@@ -9216,7 +9811,7 @@
         <v>0.7543966194191325</v>
       </c>
       <c r="W64">
-        <v>-0.059289154970488527</v>
+        <v>-5.9289154970488527E-2</v>
       </c>
       <c r="X64">
         <v>0.96777694735764275</v>
@@ -9249,13 +9844,13 @@
         <v>1.1985948596397551</v>
       </c>
       <c r="AH64">
-        <v>3889.9299999999998</v>
+        <v>3889.93</v>
       </c>
       <c r="AI64">
         <v>1.7135812943845061</v>
       </c>
       <c r="AJ64">
-        <v>0.083378535517777116</v>
+        <v>8.3378535517777116E-2</v>
       </c>
       <c r="AK64">
         <v>-2.0158003066293166</v>
@@ -9270,13 +9865,13 @@
         <v>-0.42210970797693553</v>
       </c>
       <c r="AO64">
-        <v>0.09332170675936198</v>
+        <v>9.332170675936198E-2</v>
       </c>
       <c r="AP64">
         <v>1.7108190505986711</v>
       </c>
       <c r="AQ64">
-        <v>0.075885158251323845</v>
+        <v>7.5885158251323845E-2</v>
       </c>
       <c r="AR64">
         <v>0.31447733142386147</v>
@@ -9297,7 +9892,7 @@
         <v>1.1745650978700972</v>
       </c>
       <c r="AX64">
-        <v>0.062349647443196377</v>
+        <v>6.2349647443196377E-2</v>
       </c>
       <c r="AY64">
         <v>-1.01612378700051</v>
@@ -9342,7 +9937,7 @@
         <v>-2.6497621018275477</v>
       </c>
       <c r="BM64">
-        <v>0.021263305051851443</v>
+        <v>2.1263305051851443E-2</v>
       </c>
       <c r="BN64">
         <v>2.447755904173575</v>
@@ -9356,9 +9951,15 @@
       <c r="BQ64">
         <v>2.0582429023426188</v>
       </c>
+      <c r="BR64" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS64" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="65">
-      <c r="A65" s="11" t="s">
+    <row r="65" spans="1:71">
+      <c r="A65" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B65">
@@ -9380,10 +9981,10 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>26.149999999999999</v>
+        <v>26.15</v>
       </c>
       <c r="I65">
-        <v>30.350000000000001</v>
+        <v>30.35</v>
       </c>
       <c r="J65">
         <v>4.2000000000000028</v>
@@ -9476,10 +10077,10 @@
         <v>-0.86599194294359205</v>
       </c>
       <c r="AN65">
-        <v>0.035225407458048599</v>
+        <v>3.5225407458048599E-2</v>
       </c>
       <c r="AO65">
-        <v>0.044875804730285303</v>
+        <v>4.4875804730285303E-2</v>
       </c>
       <c r="AP65">
         <v>0.93566833837401775</v>
@@ -9515,7 +10116,7 @@
         <v>2.4185934291995914</v>
       </c>
       <c r="BA65">
-        <v>-0.024365328032028687</v>
+        <v>-2.4365328032028687E-2</v>
       </c>
       <c r="BB65">
         <v>1.2237403080410518</v>
@@ -9565,9 +10166,12 @@
       <c r="BQ65">
         <v>-0.65758307458887644</v>
       </c>
+      <c r="BR65" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66">
-      <c r="A66" s="11" t="s">
+    <row r="66" spans="1:71">
+      <c r="A66" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B66">
@@ -9589,10 +10193,10 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>25.219999999999999</v>
+        <v>25.22</v>
       </c>
       <c r="I66">
-        <v>27.350000000000001</v>
+        <v>27.35</v>
       </c>
       <c r="J66">
         <v>2.1300000000000026</v>
@@ -9610,7 +10214,7 @@
         <v>-13.666666666666668</v>
       </c>
       <c r="O66">
-        <v>-0.047687690565602812</v>
+        <v>-4.7687690565602812E-2</v>
       </c>
       <c r="P66">
         <v>0.29558798822120835</v>
@@ -9619,7 +10223,7 @@
         <v>0.71071071844637967</v>
       </c>
       <c r="R66">
-        <v>0.45000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="S66">
         <v>1</v>
@@ -9673,7 +10277,7 @@
         <v>1.2628052489092896</v>
       </c>
       <c r="AJ66">
-        <v>0.084488102782738925</v>
+        <v>8.4488102782738925E-2</v>
       </c>
       <c r="AK66">
         <v>-7.5906604525693178</v>
@@ -9774,9 +10378,12 @@
       <c r="BQ66">
         <v>-0.72649305767033356</v>
       </c>
+      <c r="BR66" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67">
-      <c r="A67" s="11" t="s">
+    <row r="67" spans="1:71">
+      <c r="A67" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B67">
@@ -9798,10 +10405,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>25.960000000000001</v>
+        <v>25.96</v>
       </c>
       <c r="I67">
-        <v>28.140000000000001</v>
+        <v>28.14</v>
       </c>
       <c r="J67">
         <v>2.1799999999999997</v>
@@ -9828,13 +10435,13 @@
         <v>0.49239811526799582</v>
       </c>
       <c r="R67">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="S67">
         <v>0.875</v>
       </c>
       <c r="T67">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="U67">
         <v>-0.97668610555611901</v>
@@ -9894,7 +10501,7 @@
         <v>-0.24106599898010475</v>
       </c>
       <c r="AN67">
-        <v>0.092032435918265612</v>
+        <v>9.2032435918265612E-2</v>
       </c>
       <c r="AO67">
         <v>0.53116400643434714</v>
@@ -9983,9 +10590,13 @@
       <c r="BQ67">
         <v>0.16451087602744885</v>
       </c>
+      <c r="BR67" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS67" s="3"/>
     </row>
-    <row r="68">
-      <c r="A68" s="11" t="s">
+    <row r="68" spans="1:71">
+      <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B68">
@@ -10007,7 +10618,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>25.609999999999999</v>
+        <v>25.61</v>
       </c>
       <c r="I68">
         <v>28.93</v>
@@ -10043,7 +10654,7 @@
         <v>0.88888888888888895</v>
       </c>
       <c r="T68">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="U68">
         <v>0.37574133914906149</v>
@@ -10112,7 +10723,7 @@
         <v>0.19892262755504261</v>
       </c>
       <c r="AQ68">
-        <v>0.037546315505796173</v>
+        <v>3.7546315505796173E-2</v>
       </c>
       <c r="AR68">
         <v>0.12509391883412901</v>
@@ -10192,9 +10803,13 @@
       <c r="BQ68">
         <v>-0.83869204588744084</v>
       </c>
+      <c r="BR68" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS68" s="3"/>
     </row>
-    <row r="69">
-      <c r="A69" s="11" t="s">
+    <row r="69" spans="1:71">
+      <c r="A69" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B69">
@@ -10216,10 +10831,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>26.719999999999999</v>
+        <v>26.72</v>
       </c>
       <c r="I69">
-        <v>28.059999999999999</v>
+        <v>28.06</v>
       </c>
       <c r="J69">
         <v>1.3399999999999999</v>
@@ -10246,7 +10861,7 @@
         <v>0.76635262336242005</v>
       </c>
       <c r="R69">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="S69">
         <v>1.2857142857142856</v>
@@ -10288,7 +10903,7 @@
         <v>2.2095685049143641</v>
       </c>
       <c r="AF69">
-        <v>-0.067156534981434979</v>
+        <v>-6.7156534981434979E-2</v>
       </c>
       <c r="AG69">
         <v>2.0538820206665895</v>
@@ -10401,9 +11016,13 @@
       <c r="BQ69">
         <v>0.58396662438940683</v>
       </c>
+      <c r="BR69" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS69" s="3"/>
     </row>
-    <row r="70">
-      <c r="A70" s="11" t="s">
+    <row r="70" spans="1:71">
+      <c r="A70" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B70">
@@ -10425,7 +11044,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>25.739999999999998</v>
+        <v>25.74</v>
       </c>
       <c r="I70">
         <v>29.07</v>
@@ -10482,7 +11101,7 @@
         <v>-0.88892417124660739</v>
       </c>
       <c r="AR70">
-        <v>-0.02724044077133924</v>
+        <v>-2.724044077133924E-2</v>
       </c>
       <c r="AS70">
         <v>-0.62704620555069834</v>
@@ -10520,9 +11139,15 @@
       <c r="BQ70">
         <v>2.2079847639038914</v>
       </c>
+      <c r="BR70" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS70" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="71">
-      <c r="A71" s="11" t="s">
+    <row r="71" spans="1:71">
+      <c r="A71" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B71">
@@ -10544,10 +11169,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>25.489999999999998</v>
+        <v>25.49</v>
       </c>
       <c r="I71">
-        <v>28.350000000000001</v>
+        <v>28.35</v>
       </c>
       <c r="J71">
         <v>2.860000000000003</v>
@@ -10643,7 +11268,7 @@
         <v>-2.2974695649168622</v>
       </c>
       <c r="AO71">
-        <v>0.042881523419877832</v>
+        <v>4.2881523419877832E-2</v>
       </c>
       <c r="AP71">
         <v>3.9022430152724774</v>
@@ -10658,19 +11283,19 @@
         <v>-0.24224511281238112</v>
       </c>
       <c r="AT71">
-        <v>-0.005645216027763948</v>
+        <v>-5.645216027763948E-3</v>
       </c>
       <c r="AU71">
         <v>1.217595113598074</v>
       </c>
       <c r="AV71">
-        <v>-0.052761942179086876</v>
+        <v>-5.2761942179086876E-2</v>
       </c>
       <c r="AW71">
         <v>0.78735528029786239</v>
       </c>
       <c r="AX71">
-        <v>-0.049449165603376172</v>
+        <v>-4.9449165603376172E-2</v>
       </c>
       <c r="AY71">
         <v>-1.4775558651728833</v>
@@ -10729,9 +11354,12 @@
       <c r="BQ71">
         <v>2.1471306028290504</v>
       </c>
+      <c r="BR71" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72">
-      <c r="A72" s="11" t="s">
+    <row r="72" spans="1:71">
+      <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B72">
@@ -10756,7 +11384,7 @@
         <v>25.84</v>
       </c>
       <c r="I72">
-        <v>26.920000000000002</v>
+        <v>26.92</v>
       </c>
       <c r="J72">
         <v>1.0800000000000018</v>
@@ -10783,7 +11411,7 @@
         <v>0.25140399317807244</v>
       </c>
       <c r="R72">
-        <v>0.45000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="S72">
         <v>2.6666666666666665</v>
@@ -10792,7 +11420,7 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="U72">
-        <v>-0.045701801472952656</v>
+        <v>-4.5701801472952656E-2</v>
       </c>
       <c r="V72">
         <v>0.70890858032477022</v>
@@ -10834,7 +11462,7 @@
         <v>2.2532414396913882</v>
       </c>
       <c r="AU72">
-        <v>-0.069411678364173904</v>
+        <v>-6.9411678364173904E-2</v>
       </c>
       <c r="AV72">
         <v>0.21183973162407815</v>
@@ -10875,9 +11503,13 @@
       <c r="BH72">
         <v>-2.3568772865288143</v>
       </c>
+      <c r="BR72" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS72" s="13"/>
     </row>
-    <row r="73">
-      <c r="A73" s="11" t="s">
+    <row r="73" spans="1:71">
+      <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B73">
@@ -10899,10 +11531,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>28.969999999999999</v>
+        <v>28.97</v>
       </c>
       <c r="I73">
-        <v>29.510000000000002</v>
+        <v>29.51</v>
       </c>
       <c r="J73">
         <v>0.5400000000000027</v>
@@ -11021,9 +11653,12 @@
       <c r="BH73">
         <v>-1.9494168924807669</v>
       </c>
+      <c r="BR73" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74">
-      <c r="A74" s="11" t="s">
+    <row r="74" spans="1:71">
+      <c r="A74" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B74">
@@ -11045,10 +11680,10 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>26.289999999999999</v>
+        <v>26.29</v>
       </c>
       <c r="I74">
-        <v>28.079999999999998</v>
+        <v>28.08</v>
       </c>
       <c r="J74">
         <v>1.7899999999999991</v>
@@ -11072,7 +11707,7 @@
         <v>3.2385279203553292</v>
       </c>
       <c r="Q74">
-        <v>0.061946924844042343</v>
+        <v>6.1946924844042343E-2</v>
       </c>
       <c r="R74">
         <v>0.35000000000000003</v>
@@ -11111,7 +11746,7 @@
         <v>2.2739194483302465</v>
       </c>
       <c r="AD74">
-        <v>0.094459422600016385</v>
+        <v>9.4459422600016385E-2</v>
       </c>
       <c r="AE74">
         <v>1.5635769243305457</v>
@@ -11167,9 +11802,12 @@
       <c r="BH74">
         <v>-2.2624220164082165</v>
       </c>
+      <c r="BR74" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75">
-      <c r="A75" s="11" t="s">
+    <row r="75" spans="1:71">
+      <c r="A75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B75">
@@ -11191,10 +11829,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>23.920000000000002</v>
+        <v>23.92</v>
       </c>
       <c r="I75">
-        <v>24.969999999999999</v>
+        <v>24.97</v>
       </c>
       <c r="J75">
         <v>1.0499999999999972</v>
@@ -11223,9 +11861,12 @@
       <c r="AU75">
         <v>0.1741380744282108</v>
       </c>
+      <c r="BR75" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76">
-      <c r="A76" s="11" t="s">
+    <row r="76" spans="1:71">
+      <c r="A76" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B76">
@@ -11247,13 +11888,13 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>28.359999999999999</v>
+        <v>28.36</v>
       </c>
       <c r="I76">
-        <v>28.379999999999999</v>
+        <v>28.38</v>
       </c>
       <c r="J76">
-        <v>0.019999999999999574</v>
+        <v>1.9999999999999574E-2</v>
       </c>
       <c r="K76">
         <v>7</v>
@@ -11277,7 +11918,7 @@
         <v>0.56387626581496719</v>
       </c>
       <c r="R76">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S76">
         <v>1.6666666666666665</v>
@@ -11351,9 +11992,12 @@
       <c r="BE76">
         <v>-2.7063025932335267</v>
       </c>
+      <c r="BR76" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77">
-      <c r="A77" s="11" t="s">
+    <row r="77" spans="1:71">
+      <c r="A77" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B77">
@@ -11375,10 +12019,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>27.780000000000001</v>
+        <v>27.78</v>
       </c>
       <c r="I77">
-        <v>28.210000000000001</v>
+        <v>28.21</v>
       </c>
       <c r="J77">
         <v>0.42999999999999972</v>
@@ -11399,7 +12043,7 @@
         <v>0.9902493090431177</v>
       </c>
       <c r="P77">
-        <v>-0.027878325878930764</v>
+        <v>-2.7878325878930764E-2</v>
       </c>
       <c r="Q77">
         <v>-0.24558965060195789</v>
@@ -11432,7 +12076,7 @@
         <v>-2.7448612444647109</v>
       </c>
       <c r="AA77">
-        <v>-0.062855650939813282</v>
+        <v>-6.2855650939813282E-2</v>
       </c>
       <c r="AB77">
         <v>-0.5115612124000426</v>
@@ -11497,9 +12141,12 @@
       <c r="BH77">
         <v>-0.1478449233911176</v>
       </c>
+      <c r="BR77" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78">
-      <c r="A78" s="11" t="s">
+    <row r="78" spans="1:71">
+      <c r="A78" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B78">
@@ -11524,7 +12171,7 @@
         <v>29.41</v>
       </c>
       <c r="I78">
-        <v>27.829999999999998</v>
+        <v>27.83</v>
       </c>
       <c r="J78">
         <v>-1.5800000000000018</v>
@@ -11542,7 +12189,7 @@
         <v>23.52944188428059</v>
       </c>
       <c r="O78">
-        <v>0.092574154525863081</v>
+        <v>9.2574154525863081E-2</v>
       </c>
       <c r="P78">
         <v>-0.52772228795306808</v>
@@ -11643,9 +12290,12 @@
       <c r="BH78">
         <v>-2.9171880528232674</v>
       </c>
+      <c r="BR78" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79">
-      <c r="A79" s="11" t="s">
+    <row r="79" spans="1:71">
+      <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B79">
@@ -11670,7 +12320,7 @@
         <v>26.82</v>
       </c>
       <c r="I79">
-        <v>29.129999999999999</v>
+        <v>29.13</v>
       </c>
       <c r="J79">
         <v>2.3099999999999987</v>
@@ -11691,13 +12341,13 @@
         <v>-1.984316720983454</v>
       </c>
       <c r="P79">
-        <v>0.084764146311610056</v>
+        <v>8.4764146311610056E-2</v>
       </c>
       <c r="Q79">
         <v>0.5687071652216219</v>
       </c>
       <c r="R79">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S79">
         <v>1.6666666666666665</v>
@@ -11751,7 +12401,7 @@
         <v>0.1281029378426988</v>
       </c>
       <c r="AV79">
-        <v>-0.034952858839298148</v>
+        <v>-3.4952858839298148E-2</v>
       </c>
       <c r="AW79">
         <v>0.4536067003890123</v>
@@ -11769,7 +12419,7 @@
         <v>-1.309969681081415</v>
       </c>
       <c r="BB79">
-        <v>-0.049727899635566591</v>
+        <v>-4.9727899635566591E-2</v>
       </c>
       <c r="BC79">
         <v>0.26202232752497023</v>
@@ -11789,9 +12439,12 @@
       <c r="BH79">
         <v>-1.1524771198015944</v>
       </c>
+      <c r="BR79" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80">
-      <c r="A80" s="11" t="s">
+    <row r="80" spans="1:71">
+      <c r="A80" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B80">
@@ -11813,10 +12466,10 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>29.379999999999999</v>
+        <v>29.38</v>
       </c>
       <c r="I80">
-        <v>28.920000000000002</v>
+        <v>28.92</v>
       </c>
       <c r="J80">
         <v>-0.4599999999999973</v>
@@ -11843,7 +12496,7 @@
         <v>0.41616482877823668</v>
       </c>
       <c r="R80">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -11935,9 +12588,12 @@
       <c r="BH80">
         <v>-1.8524335891404058</v>
       </c>
+      <c r="BR80" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81">
-      <c r="A81" s="11" t="s">
+    <row r="81" spans="1:70">
+      <c r="A81" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B81">
@@ -11962,7 +12618,7 @@
         <v>27.93</v>
       </c>
       <c r="I81">
-        <v>29.879999999999999</v>
+        <v>29.88</v>
       </c>
       <c r="J81">
         <v>1.9499999999999993</v>
@@ -11989,7 +12645,7 @@
         <v>0.36879911828708667</v>
       </c>
       <c r="R81">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="S81">
         <v>0.5</v>
@@ -12013,10 +12669,10 @@
         <v>0.17213125034283761</v>
       </c>
       <c r="Z81">
-        <v>-0.097043444777361709</v>
+        <v>-9.7043444777361709E-2</v>
       </c>
       <c r="AA81">
-        <v>0.065886781125271604</v>
+        <v>6.5886781125271604E-2</v>
       </c>
       <c r="AB81">
         <v>-0.15743485692499798</v>
@@ -12046,7 +12702,7 @@
         <v>-0.37449705955842705</v>
       </c>
       <c r="AW81">
-        <v>-0.042340115637485937</v>
+        <v>-4.2340115637485937E-2</v>
       </c>
       <c r="AX81">
         <v>-0.74513143676642546</v>
@@ -12055,7 +12711,7 @@
         <v>1.1648235640115852</v>
       </c>
       <c r="AZ81">
-        <v>0.031312140418608525</v>
+        <v>3.1312140418608525E-2</v>
       </c>
       <c r="BA81">
         <v>-1.1307797722269621</v>
@@ -12081,9 +12737,12 @@
       <c r="BH81">
         <v>0.9643867286079485</v>
       </c>
+      <c r="BR81" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82">
-      <c r="A82" s="11" t="s">
+    <row r="82" spans="1:70">
+      <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B82">
@@ -12105,10 +12764,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>22.809999999999999</v>
+        <v>22.81</v>
       </c>
       <c r="I82">
-        <v>22.030000000000001</v>
+        <v>22.03</v>
       </c>
       <c r="J82">
         <v>-0.77999999999999758</v>
@@ -12137,9 +12796,12 @@
       <c r="AU82">
         <v>3.2586169166393786</v>
       </c>
+      <c r="BR82" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83">
-      <c r="A83" s="11" t="s">
+    <row r="83" spans="1:70">
+      <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B83">
@@ -12161,10 +12823,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>30.420000000000002</v>
+        <v>30.42</v>
       </c>
       <c r="I83">
-        <v>30.620000000000001</v>
+        <v>30.62</v>
       </c>
       <c r="J83">
         <v>0.19999999999999929</v>
@@ -12191,7 +12853,7 @@
         <v>0.69480512943578909</v>
       </c>
       <c r="R83">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="S83">
         <v>0.75000000000000011</v>
@@ -12283,9 +12945,12 @@
       <c r="BH83">
         <v>1.2285986977448626</v>
       </c>
+      <c r="BR83" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84">
-      <c r="A84" s="11" t="s">
+    <row r="84" spans="1:70">
+      <c r="A84" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B84">
@@ -12310,7 +12975,7 @@
         <v>26.18</v>
       </c>
       <c r="I84">
-        <v>26.850000000000001</v>
+        <v>26.85</v>
       </c>
       <c r="J84">
         <v>0.67000000000000171</v>
@@ -12370,7 +13035,7 @@
         <v>2.3372297844201957</v>
       </c>
       <c r="AD84">
-        <v>-0.055953592923938686</v>
+        <v>-5.5953592923938686E-2</v>
       </c>
       <c r="AE84">
         <v>-3.9989720332924756</v>
@@ -12394,7 +13059,7 @@
         <v>-1.9619094451035466</v>
       </c>
       <c r="AX84">
-        <v>0.032957630649200487</v>
+        <v>3.2957630649200487E-2</v>
       </c>
       <c r="AY84">
         <v>-1.0569124901688578</v>
@@ -12424,11 +13089,14 @@
         <v>-2.452246755857046</v>
       </c>
       <c r="BH84">
-        <v>0.020500993260765699</v>
+        <v>2.0500993260765699E-2</v>
+      </c>
+      <c r="BR84" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="11" t="s">
+    <row r="85" spans="1:70">
+      <c r="A85" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B85">
@@ -12450,10 +13118,10 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>26.190000000000001</v>
+        <v>26.19</v>
       </c>
       <c r="I85">
-        <v>28.379999999999999</v>
+        <v>28.38</v>
       </c>
       <c r="J85">
         <v>2.1899999999999977</v>
@@ -12561,7 +13229,7 @@
         <v>0.53072193033502557</v>
       </c>
       <c r="BE85">
-        <v>0.085777690976308704</v>
+        <v>8.5777690976308704E-2</v>
       </c>
       <c r="BF85">
         <v>0.19093389234089639</v>
@@ -12572,9 +13240,12 @@
       <c r="BH85">
         <v>1.292649737521659</v>
       </c>
+      <c r="BR85" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86">
-      <c r="A86" s="11" t="s">
+    <row r="86" spans="1:70">
+      <c r="A86" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B86">
@@ -12599,7 +13270,7 @@
         <v>27.57</v>
       </c>
       <c r="I86">
-        <v>28.629999999999999</v>
+        <v>28.63</v>
       </c>
       <c r="J86">
         <v>1.0599999999999987</v>
@@ -12608,7 +13279,7 @@
         <v>6</v>
       </c>
       <c r="L86">
-        <v>-5.6500000000000004</v>
+        <v>-5.65</v>
       </c>
       <c r="M86">
         <v>2</v>
@@ -12665,7 +13336,7 @@
         <v>1.1507079742173161</v>
       </c>
       <c r="AE86">
-        <v>0.012759325327184252</v>
+        <v>1.2759325327184252E-2</v>
       </c>
       <c r="AF86">
         <v>-0.36058261437168276</v>
@@ -12710,7 +13381,7 @@
         <v>-0.17812666625756182</v>
       </c>
       <c r="BF86">
-        <v>0.063412488834925285</v>
+        <v>6.3412488834925285E-2</v>
       </c>
       <c r="BG86">
         <v>-0.12103314042452264</v>
@@ -12718,9 +13389,12 @@
       <c r="BH86">
         <v>-0.3598709325577395</v>
       </c>
+      <c r="BR86" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87">
-      <c r="A87" s="11" t="s">
+    <row r="87" spans="1:70">
+      <c r="A87" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B87">
@@ -12742,10 +13416,10 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>30.190000000000001</v>
+        <v>30.19</v>
       </c>
       <c r="I87">
-        <v>31.850000000000001</v>
+        <v>31.85</v>
       </c>
       <c r="J87">
         <v>1.6600000000000001</v>
@@ -12808,7 +13482,7 @@
         <v>1.1534907979911451</v>
       </c>
       <c r="AE87">
-        <v>-0.076608762965855198</v>
+        <v>-7.6608762965855198E-2</v>
       </c>
       <c r="AF87">
         <v>-0.42950340179342661</v>
@@ -12861,9 +13535,12 @@
       <c r="BH87">
         <v>0.64469185390639583</v>
       </c>
+      <c r="BR87" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88">
-      <c r="A88" s="11" t="s">
+    <row r="88" spans="1:70">
+      <c r="A88" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B88">
@@ -12888,7 +13565,7 @@
         <v>26.18</v>
       </c>
       <c r="I88">
-        <v>27.219999999999999</v>
+        <v>27.22</v>
       </c>
       <c r="J88">
         <v>1.0399999999999991</v>
@@ -12986,9 +13663,12 @@
       <c r="BE88">
         <v>-2.9681942930680627</v>
       </c>
+      <c r="BR88" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89">
-      <c r="A89" s="11" t="s">
+    <row r="89" spans="1:70">
+      <c r="A89" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B89">
@@ -13010,10 +13690,10 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>25.879999999999999</v>
+        <v>25.88</v>
       </c>
       <c r="I89">
-        <v>26.960000000000001</v>
+        <v>26.96</v>
       </c>
       <c r="J89">
         <v>1.0800000000000018</v>
@@ -13040,7 +13720,7 @@
         <v>0.62293688112930456</v>
       </c>
       <c r="R89">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S89">
         <v>1.5000000000000002</v>
@@ -13055,7 +13735,7 @@
         <v>0.6252620242294662</v>
       </c>
       <c r="W89">
-        <v>0.042565743202314189</v>
+        <v>4.2565743202314189E-2</v>
       </c>
       <c r="X89">
         <v>0.4747414724029318</v>
@@ -13076,10 +13756,10 @@
         <v>-0.69622921432613971</v>
       </c>
       <c r="AD89">
-        <v>-0.073351464278430617</v>
+        <v>-7.3351464278430617E-2</v>
       </c>
       <c r="AE89">
-        <v>0.055416250876994866</v>
+        <v>5.5416250876994866E-2</v>
       </c>
       <c r="AF89">
         <v>0.37458837917802162</v>
@@ -13100,7 +13780,7 @@
         <v>0.84778240185788178</v>
       </c>
       <c r="AX89">
-        <v>-0.036485672258859361</v>
+        <v>-3.6485672258859361E-2</v>
       </c>
       <c r="AY89">
         <v>-0.65982599973861555</v>
@@ -13109,7 +13789,7 @@
         <v>-2.1902562278692366</v>
       </c>
       <c r="BA89">
-        <v>0.0045916710846730649</v>
+        <v>4.5916710846730649E-3</v>
       </c>
       <c r="BB89">
         <v>0.95533139146657275</v>
@@ -13132,9 +13812,12 @@
       <c r="BH89">
         <v>1.590286820315121</v>
       </c>
+      <c r="BR89" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90">
-      <c r="A90" s="11" t="s">
+    <row r="90" spans="1:70">
+      <c r="A90" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B90">
@@ -13186,7 +13869,7 @@
         <v>0.14952744787539834</v>
       </c>
       <c r="R90">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -13278,9 +13961,12 @@
       <c r="BH90">
         <v>0.4318459058949945</v>
       </c>
+      <c r="BR90" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91">
-      <c r="A91" s="11" t="s">
+    <row r="91" spans="1:70">
+      <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B91">
@@ -13328,9 +14014,12 @@
       <c r="AU91">
         <v>-4.6803830902113566</v>
       </c>
+      <c r="BR91" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92">
-      <c r="A92" s="11" t="s">
+    <row r="92" spans="1:70">
+      <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B92">
@@ -13352,10 +14041,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>27.960000000000001</v>
+        <v>27.96</v>
       </c>
       <c r="I92">
-        <v>29.780000000000001</v>
+        <v>29.78</v>
       </c>
       <c r="J92">
         <v>1.8200000000000003</v>
@@ -13384,9 +14073,12 @@
       <c r="AU92">
         <v>-0.39545406459814747</v>
       </c>
+      <c r="BR92" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93">
-      <c r="A93" s="11" t="s">
+    <row r="93" spans="1:70">
+      <c r="A93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B93">
@@ -13408,10 +14100,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>29.920000000000002</v>
+        <v>29.92</v>
       </c>
       <c r="I93">
-        <v>31.289999999999999</v>
+        <v>31.29</v>
       </c>
       <c r="J93">
         <v>1.3699999999999974</v>
@@ -13440,9 +14132,12 @@
       <c r="AU93">
         <v>1.1592620104783995</v>
       </c>
+      <c r="BR93" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94">
-      <c r="A94" s="11" t="s">
+    <row r="94" spans="1:70">
+      <c r="A94" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B94">
@@ -13464,10 +14159,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>28.210000000000001</v>
+        <v>28.21</v>
       </c>
       <c r="I94">
-        <v>29.940000000000001</v>
+        <v>29.94</v>
       </c>
       <c r="J94">
         <v>1.7300000000000004</v>
@@ -13496,9 +14191,12 @@
       <c r="AU94">
         <v>-0.57275264834661654</v>
       </c>
+      <c r="BR94" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95">
-      <c r="A95" s="11" t="s">
+    <row r="95" spans="1:70">
+      <c r="A95" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B95">
@@ -13520,10 +14218,10 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>29.140000000000001</v>
+        <v>29.14</v>
       </c>
       <c r="I95">
-        <v>28.940000000000001</v>
+        <v>28.94</v>
       </c>
       <c r="J95">
         <v>-0.19999999999999929</v>
@@ -13552,9 +14250,12 @@
       <c r="AU95">
         <v>0.61880807416439987</v>
       </c>
+      <c r="BR95" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96">
-      <c r="A96" s="11" t="s">
+    <row r="96" spans="1:70">
+      <c r="A96" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B96">
@@ -13579,7 +14280,7 @@
         <v>26.27</v>
       </c>
       <c r="I96">
-        <v>27.359999999999999</v>
+        <v>27.36</v>
       </c>
       <c r="J96">
         <v>1.0899999999999999</v>
@@ -13608,9 +14309,12 @@
       <c r="AU96">
         <v>0.75866248893166333</v>
       </c>
+      <c r="BR96" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97">
-      <c r="A97" s="11" t="s">
+    <row r="97" spans="1:70">
+      <c r="A97" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B97">
@@ -13632,7 +14336,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>30.649999999999999</v>
+        <v>30.65</v>
       </c>
       <c r="I97">
         <v>25.93</v>
@@ -13662,11 +14366,14 @@
         <v>0.15676663831871007</v>
       </c>
       <c r="AU97">
-        <v>0.060209472360471278</v>
+        <v>6.0209472360471278E-2</v>
+      </c>
+      <c r="BR97" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="11" t="s">
+    <row r="98" spans="1:70">
+      <c r="A98" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B98">
@@ -13688,10 +14395,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>28.030000000000001</v>
+        <v>28.03</v>
       </c>
       <c r="I98">
-        <v>28.379999999999999</v>
+        <v>28.38</v>
       </c>
       <c r="J98">
         <v>0.34999999999999787</v>
@@ -13720,9 +14427,12 @@
       <c r="AU98">
         <v>0.74343980611554394</v>
       </c>
+      <c r="BR98" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99">
-      <c r="A99" s="11" t="s">
+    <row r="99" spans="1:70">
+      <c r="A99" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B99">
@@ -13744,10 +14454,10 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>27.640000000000001</v>
+        <v>27.64</v>
       </c>
       <c r="I99">
-        <v>28.379999999999999</v>
+        <v>28.38</v>
       </c>
       <c r="J99">
         <v>0.73999999999999844</v>
@@ -13776,9 +14486,12 @@
       <c r="AU99">
         <v>-0.78236595377520646</v>
       </c>
+      <c r="BR99" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100">
-      <c r="A100" s="11" t="s">
+    <row r="100" spans="1:70">
+      <c r="A100" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B100">
@@ -13800,7 +14513,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>27.969999999999999</v>
+        <v>27.97</v>
       </c>
       <c r="I100">
         <v>29.82</v>
@@ -13832,9 +14545,12 @@
       <c r="AU100">
         <v>-1.3282922847305934</v>
       </c>
+      <c r="BR100" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101">
-      <c r="A101" s="11" t="s">
+    <row r="101" spans="1:70">
+      <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B101">
@@ -13856,10 +14572,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>27.050000000000001</v>
+        <v>27.05</v>
       </c>
       <c r="I101">
-        <v>27.289999999999999</v>
+        <v>27.29</v>
       </c>
       <c r="J101">
         <v>0.23999999999999844</v>
@@ -13886,7 +14602,7 @@
         <v>-0.38014968767820934</v>
       </c>
       <c r="R101">
-        <v>0.45000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="S101">
         <v>0.90909090909090906</v>
@@ -13928,7 +14644,7 @@
         <v>1.1322236016835261</v>
       </c>
       <c r="AF101">
-        <v>0.07435738799875781</v>
+        <v>7.435738799875781E-2</v>
       </c>
       <c r="AG101">
         <v>0.380857249321568</v>
@@ -13978,9 +14694,12 @@
       <c r="BH101">
         <v>0.24477390974736105</v>
       </c>
+      <c r="BR101" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102">
-      <c r="A102" s="11" t="s">
+    <row r="102" spans="1:70">
+      <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B102">
@@ -14002,7 +14721,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>27.510000000000002</v>
+        <v>27.51</v>
       </c>
       <c r="I102">
         <v>28.73</v>
@@ -14032,7 +14751,7 @@
         <v>-0.51487168582019827</v>
       </c>
       <c r="R102">
-        <v>0.45000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="S102">
         <v>1</v>
@@ -14077,7 +14796,7 @@
         <v>0.35897804548748052</v>
       </c>
       <c r="AG102">
-        <v>0.041869993156958552</v>
+        <v>4.1869993156958552E-2</v>
       </c>
       <c r="AT102">
         <v>-3.0501403567132774</v>
@@ -14124,9 +14843,12 @@
       <c r="BH102">
         <v>0.21387504745597291</v>
       </c>
+      <c r="BR102" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103">
-      <c r="A103" s="11" t="s">
+    <row r="103" spans="1:70">
+      <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B103">
@@ -14151,7 +14873,7 @@
         <v>31.52</v>
       </c>
       <c r="I103">
-        <v>31.890000000000001</v>
+        <v>31.89</v>
       </c>
       <c r="J103">
         <v>0.37000000000000099</v>
@@ -14169,7 +14891,7 @@
         <v>24.521645021645021</v>
       </c>
       <c r="O103">
-        <v>0.089318897604403147</v>
+        <v>8.9318897604403147E-2</v>
       </c>
       <c r="P103">
         <v>-2.7328654867055748</v>
@@ -14270,9 +14992,12 @@
       <c r="BH103">
         <v>0.51290924271711447</v>
       </c>
+      <c r="BR103" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104">
-      <c r="A104" s="11" t="s">
+    <row r="104" spans="1:70">
+      <c r="A104" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B104">
@@ -14297,7 +15022,7 @@
         <v>28.02</v>
       </c>
       <c r="I104">
-        <v>30.699999999999999</v>
+        <v>30.7</v>
       </c>
       <c r="J104">
         <v>2.6799999999999997</v>
@@ -14324,13 +15049,13 @@
         <v>0.37712932767159962</v>
       </c>
       <c r="R104">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S104">
         <v>1.25</v>
       </c>
       <c r="T104">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="U104">
         <v>-0.42095357819333129</v>
@@ -14366,7 +15091,7 @@
         <v>-2.3833556587689113</v>
       </c>
       <c r="AF104">
-        <v>0.021641992033849939</v>
+        <v>2.1641992033849939E-2</v>
       </c>
       <c r="AG104">
         <v>0.66031311496920808</v>
@@ -14416,9 +15141,12 @@
       <c r="BH104">
         <v>1.4356414198459104</v>
       </c>
+      <c r="BR104" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105">
-      <c r="A105" s="11" t="s">
+    <row r="105" spans="1:70">
+      <c r="A105" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B105">
@@ -14503,7 +15231,7 @@
         <v>-1.6105209231479651</v>
       </c>
       <c r="AC105">
-        <v>0.026565665582902669</v>
+        <v>2.6565665582902669E-2</v>
       </c>
       <c r="AD105">
         <v>1.3896559401311734</v>
@@ -14512,7 +15240,7 @@
         <v>0.16473309895057633</v>
       </c>
       <c r="AF105">
-        <v>0.0051777572503811696</v>
+        <v>5.1777572503811696E-3</v>
       </c>
       <c r="AG105">
         <v>-0.75798609128335848</v>
@@ -14554,7 +15282,7 @@
         <v>0.49510392426956984</v>
       </c>
       <c r="BF105">
-        <v>-0.0099493893154386798</v>
+        <v>-9.9493893154386798E-3</v>
       </c>
       <c r="BG105">
         <v>0.34699680207962202</v>
@@ -14562,9 +15290,12 @@
       <c r="BH105">
         <v>-0.64160894119582101</v>
       </c>
+      <c r="BR105" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106">
-      <c r="A106" s="11" t="s">
+    <row r="106" spans="1:70">
+      <c r="A106" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B106">
@@ -14589,7 +15320,7 @@
         <v>29.32</v>
       </c>
       <c r="I106">
-        <v>28.289999999999999</v>
+        <v>28.29</v>
       </c>
       <c r="J106">
         <v>-1.0300000000000011</v>
@@ -14613,7 +15344,7 @@
         <v>-3.1796253209693304</v>
       </c>
       <c r="Q106">
-        <v>-0.091005324464474444</v>
+        <v>-9.1005324464474444E-2</v>
       </c>
       <c r="R106">
         <v>0.25</v>
@@ -14628,7 +15359,7 @@
         <v>1.8891738972471461</v>
       </c>
       <c r="V106">
-        <v>-0.0080558640809238607</v>
+        <v>-8.0558640809238607E-3</v>
       </c>
       <c r="W106">
         <v>0.18881120729920825</v>
@@ -14697,10 +15428,10 @@
         <v>0.52201301631342456</v>
       </c>
       <c r="BE106">
-        <v>-0.019937907152086241</v>
+        <v>-1.9937907152086241E-2</v>
       </c>
       <c r="BF106">
-        <v>-0.065100554006673403</v>
+        <v>-6.5100554006673403E-2</v>
       </c>
       <c r="BG106">
         <v>0.85142802531473483</v>
@@ -14708,9 +15439,12 @@
       <c r="BH106">
         <v>-0.46975225491570494</v>
       </c>
+      <c r="BR106" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107">
-      <c r="A107" s="11" t="s">
+    <row r="107" spans="1:70">
+      <c r="A107" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B107">
@@ -14732,10 +15466,10 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>28.690000000000001</v>
+        <v>28.69</v>
       </c>
       <c r="I107">
-        <v>26.190000000000001</v>
+        <v>26.19</v>
       </c>
       <c r="J107">
         <v>-2.5</v>
@@ -14762,7 +15496,7 @@
         <v>0.26199794187327841</v>
       </c>
       <c r="R107">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="S107">
         <v>1</v>
@@ -14789,10 +15523,10 @@
         <v>-0.97184994107668143</v>
       </c>
       <c r="AA107">
-        <v>-0.076667962458303818</v>
+        <v>-7.6667962458303818E-2</v>
       </c>
       <c r="AB107">
-        <v>-0.082167533862216702</v>
+        <v>-8.2167533862216702E-2</v>
       </c>
       <c r="AC107">
         <v>-1.5069122055456274</v>
@@ -14801,7 +15535,7 @@
         <v>0.73264930923720106</v>
       </c>
       <c r="AE107">
-        <v>0.086513656664193236</v>
+        <v>8.6513656664193236E-2</v>
       </c>
       <c r="AF107">
         <v>-1.1019032190245406</v>
@@ -14813,7 +15547,7 @@
         <v>0.27009843584385768</v>
       </c>
       <c r="AU107">
-        <v>-0.05589511142254501</v>
+        <v>-5.589511142254501E-2</v>
       </c>
       <c r="AV107">
         <v>0.82335989600482229</v>
@@ -14854,9 +15588,12 @@
       <c r="BH107">
         <v>-1.1025467243556413</v>
       </c>
+      <c r="BR107" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108">
-      <c r="A108" s="11" t="s">
+    <row r="108" spans="1:70">
+      <c r="A108" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B108">
@@ -14878,7 +15615,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>28.079999999999998</v>
+        <v>28.08</v>
       </c>
       <c r="I108">
         <v>27.34</v>
@@ -14908,10 +15645,10 @@
         <v>0.62623129021243906</v>
       </c>
       <c r="R108">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="S108">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="T108">
         <v>2.5</v>
@@ -14932,7 +15669,7 @@
         <v>-2.899142255830514</v>
       </c>
       <c r="Z108">
-        <v>-0.032109462663802719</v>
+        <v>-3.2109462663802719E-2</v>
       </c>
       <c r="AA108">
         <v>-0.15561117448801534</v>
@@ -15000,9 +15737,12 @@
       <c r="BH108">
         <v>-0.55314531923188148</v>
       </c>
+      <c r="BR108" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109">
-      <c r="A109" s="11" t="s">
+    <row r="109" spans="1:70">
+      <c r="A109" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B109">
@@ -15024,10 +15764,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>27.809999999999999</v>
+        <v>27.81</v>
       </c>
       <c r="I109">
-        <v>27.629999999999999</v>
+        <v>27.63</v>
       </c>
       <c r="J109">
         <v>-0.17999999999999972</v>
@@ -15054,7 +15794,7 @@
         <v>0.51220358655543285</v>
       </c>
       <c r="R109">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S109">
         <v>1</v>
@@ -15096,7 +15836,7 @@
         <v>0.46952592313568187</v>
       </c>
       <c r="AF109">
-        <v>-0.083692071037796842</v>
+        <v>-8.3692071037796842E-2</v>
       </c>
       <c r="AG109">
         <v>-1.7189967646476103</v>
@@ -15135,7 +15875,7 @@
         <v>-1.1452328861711671</v>
       </c>
       <c r="BE109">
-        <v>0.063474068308740791</v>
+        <v>6.3474068308740791E-2</v>
       </c>
       <c r="BF109">
         <v>0.29018272352732521</v>
@@ -15146,9 +15886,12 @@
       <c r="BH109">
         <v>-1.5330348695426428</v>
       </c>
+      <c r="BR109" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110">
-      <c r="A110" s="11" t="s">
+    <row r="110" spans="1:70">
+      <c r="A110" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B110">
@@ -15173,7 +15916,7 @@
         <v>28.52</v>
       </c>
       <c r="I110">
-        <v>27.710000000000001</v>
+        <v>27.71</v>
       </c>
       <c r="J110">
         <v>-0.80999999999999872</v>
@@ -15200,7 +15943,7 @@
         <v>0.69111341157222528</v>
       </c>
       <c r="R110">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S110">
         <v>1</v>
@@ -15292,7 +16035,11 @@
       <c r="BH110">
         <v>1.5017026802123352</v>
       </c>
+      <c r="BR110" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/validation_cohort_full.xlsx
+++ b/data/validation_cohort_full.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolfgang.kelsch\Documents\GitHub\RichClubs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corentin.nelias\Documents\GitHub\RichClubs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="111">
   <si>
     <t>Mouse_RFID</t>
   </si>
@@ -352,18 +352,6 @@
   </si>
   <si>
     <t>RC</t>
-  </si>
-  <si>
-    <t>histology</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>weak</t>
   </si>
 </sst>
 </file>
@@ -758,47 +746,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CC10" sqref="CC10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="16" width="14.44140625" customWidth="1"/>
-    <col min="17" max="17" width="25.44140625" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" customWidth="1"/>
-    <col min="19" max="19" width="41.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="4.36328125" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="13" width="15.6328125" customWidth="1"/>
+    <col min="14" max="16" width="14.453125" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" customWidth="1"/>
+    <col min="18" max="18" width="23.54296875" customWidth="1"/>
+    <col min="19" max="19" width="41.90625" customWidth="1"/>
     <col min="20" max="20" width="44" customWidth="1"/>
-    <col min="21" max="21" width="14.44140625" customWidth="1"/>
-    <col min="22" max="22" width="15.44140625" customWidth="1"/>
-    <col min="23" max="24" width="14.44140625" customWidth="1"/>
-    <col min="25" max="25" width="13.5546875" customWidth="1"/>
-    <col min="26" max="28" width="14.44140625" customWidth="1"/>
-    <col min="29" max="29" width="13.6640625" customWidth="1"/>
-    <col min="30" max="33" width="14.44140625" customWidth="1"/>
+    <col min="21" max="21" width="14.453125" customWidth="1"/>
+    <col min="22" max="22" width="15.453125" customWidth="1"/>
+    <col min="23" max="24" width="14.453125" customWidth="1"/>
+    <col min="25" max="25" width="13.54296875" customWidth="1"/>
+    <col min="26" max="28" width="14.453125" customWidth="1"/>
+    <col min="29" max="29" width="13.6328125" customWidth="1"/>
+    <col min="30" max="33" width="14.453125" customWidth="1"/>
     <col min="34" max="34" width="22" customWidth="1"/>
-    <col min="35" max="35" width="36.33203125" customWidth="1"/>
-    <col min="36" max="36" width="32.44140625" customWidth="1"/>
-    <col min="37" max="45" width="20.88671875" customWidth="1"/>
-    <col min="46" max="47" width="16.5546875" customWidth="1"/>
-    <col min="48" max="49" width="16.44140625" customWidth="1"/>
-    <col min="50" max="51" width="18.109375" customWidth="1"/>
-    <col min="52" max="57" width="18.44140625" customWidth="1"/>
-    <col min="58" max="60" width="16.88671875" customWidth="1"/>
-    <col min="61" max="69" width="25.6640625" customWidth="1"/>
+    <col min="35" max="35" width="36.36328125" customWidth="1"/>
+    <col min="36" max="36" width="32.453125" customWidth="1"/>
+    <col min="37" max="45" width="20.90625" customWidth="1"/>
+    <col min="46" max="47" width="16.54296875" customWidth="1"/>
+    <col min="48" max="49" width="16.453125" customWidth="1"/>
+    <col min="50" max="51" width="18.08984375" customWidth="1"/>
+    <col min="52" max="57" width="18.453125" customWidth="1"/>
+    <col min="58" max="60" width="16.90625" customWidth="1"/>
+    <col min="61" max="69" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71">
@@ -1012,9 +1000,7 @@
       <c r="BR1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="BS1" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="BS1" s="2"/>
     </row>
     <row r="2" spans="1:71">
       <c r="A2" s="1" t="s">
@@ -1260,9 +1246,7 @@
       <c r="BR3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS3" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="BS3" s="4"/>
     </row>
     <row r="4" spans="1:71">
       <c r="A4" s="1" t="s">
@@ -1507,9 +1491,7 @@
       <c r="BR5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS5" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="BS5" s="4"/>
     </row>
     <row r="6" spans="1:71">
       <c r="A6" s="1" t="s">
@@ -1632,9 +1614,7 @@
       <c r="BR6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS6" s="7" t="s">
-        <v>112</v>
-      </c>
+      <c r="BS6" s="7"/>
     </row>
     <row r="7" spans="1:71">
       <c r="A7" s="1" t="s">
@@ -1757,9 +1737,7 @@
       <c r="BR7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS7" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="BS7" s="4"/>
     </row>
     <row r="8" spans="1:71">
       <c r="A8" s="1" t="s">
@@ -2741,9 +2719,7 @@
       <c r="BR15" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS15" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="BS15" s="10"/>
     </row>
     <row r="16" spans="1:71">
       <c r="A16" s="1" t="s">
@@ -2988,9 +2964,7 @@
       <c r="BR17" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS17" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="BS17" s="4"/>
     </row>
     <row r="18" spans="1:71">
       <c r="A18" s="1" t="s">
@@ -3113,9 +3087,7 @@
       <c r="BR18" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS18" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="BS18" s="10"/>
     </row>
     <row r="19" spans="1:71">
       <c r="A19" s="1" t="s">
@@ -3238,9 +3210,7 @@
       <c r="BR19" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS19" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="BS19" s="4"/>
     </row>
     <row r="20" spans="1:71">
       <c r="A20" s="1" t="s">
@@ -3485,9 +3455,7 @@
       <c r="BR21" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS21" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="BS21" s="10"/>
     </row>
     <row r="22" spans="1:71">
       <c r="A22" s="1" t="s">
@@ -3610,9 +3578,7 @@
       <c r="BR22" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS22" s="11" t="s">
-        <v>112</v>
-      </c>
+      <c r="BS22" s="11"/>
     </row>
     <row r="23" spans="1:71">
       <c r="A23" s="1" t="s">
@@ -4345,9 +4311,7 @@
       <c r="BR28" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS28" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="BS28" s="4"/>
     </row>
     <row r="29" spans="1:71">
       <c r="A29" s="1" t="s">
@@ -4470,9 +4434,7 @@
       <c r="BR29" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS29" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="BS29" s="4"/>
     </row>
     <row r="30" spans="1:71">
       <c r="A30" s="1" t="s">
@@ -4595,9 +4557,7 @@
       <c r="BR30" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="BS30" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="BS30" s="4"/>
     </row>
     <row r="31" spans="1:71">
       <c r="A31" s="1" t="s">
@@ -4965,9 +4925,7 @@
       <c r="BR33" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS33" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="BS33" s="10"/>
     </row>
     <row r="34" spans="1:71">
       <c r="A34" s="1" t="s">
@@ -5090,9 +5048,7 @@
       <c r="BR34" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS34" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="BS34" s="4"/>
     </row>
     <row r="35" spans="1:71">
       <c r="A35" s="1" t="s">
@@ -5827,9 +5783,7 @@
       <c r="BR40" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS40" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="BS40" s="4"/>
     </row>
     <row r="41" spans="1:71">
       <c r="A41" s="1" t="s">
@@ -6197,9 +6151,7 @@
       <c r="BR43" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS43" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="BS43" s="4"/>
     </row>
     <row r="44" spans="1:71">
       <c r="A44" s="1" t="s">
@@ -6444,9 +6396,7 @@
       <c r="BR45" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="BS45" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="BS45" s="5"/>
     </row>
     <row r="46" spans="1:71">
       <c r="A46" s="1" t="s">
@@ -6569,9 +6519,7 @@
       <c r="BR46" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS46" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="BS46" s="4"/>
     </row>
     <row r="47" spans="1:71">
       <c r="A47" s="1" t="s">
@@ -6694,9 +6642,7 @@
       <c r="BR47" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BS47" s="14" t="s">
-        <v>113</v>
-      </c>
+      <c r="BS47" s="14"/>
     </row>
     <row r="48" spans="1:71">
       <c r="A48" s="1" t="s">
@@ -7399,9 +7345,7 @@
       <c r="BR52" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS52" s="11" t="s">
-        <v>112</v>
-      </c>
+      <c r="BS52" s="11"/>
     </row>
     <row r="53" spans="1:71">
       <c r="A53" s="1" t="s">
@@ -8675,9 +8619,7 @@
       <c r="BR58" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS58" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="BS58" s="4"/>
     </row>
     <row r="59" spans="1:71">
       <c r="A59" s="1" t="s">
@@ -8890,9 +8832,7 @@
       <c r="BR59" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS59" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="BS59" s="4"/>
     </row>
     <row r="60" spans="1:71">
       <c r="A60" s="1" t="s">
@@ -9739,9 +9679,7 @@
       <c r="BR63" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS63" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="BS63" s="10"/>
     </row>
     <row r="64" spans="1:71">
       <c r="A64" s="1" t="s">
@@ -9954,9 +9892,7 @@
       <c r="BR64" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS64" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="BS64" s="4"/>
     </row>
     <row r="65" spans="1:71">
       <c r="A65" s="1" t="s">
@@ -11142,9 +11078,7 @@
       <c r="BR70" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="BS70" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="BS70" s="4"/>
     </row>
     <row r="71" spans="1:71">
       <c r="A71" s="1" t="s">
